--- a/oclog/openset/notebooks/tracker.xlsx
+++ b/oclog/openset/notebooks/tracker.xlsx
@@ -1,26 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhujay_ROG\MyDev\OCLog\oclog\openset\notebooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E430B6A-1EF0-4C45-8509-BEF6A1C50428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22992" yWindow="564" windowWidth="21156" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+  <si>
+    <t>Unnamed: 0.8</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.7</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.6</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.5</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.4</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.3</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.2</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>ablation</t>
   </si>
@@ -70,6 +91,12 @@
     <t>comment</t>
   </si>
   <si>
+    <t>pre_tr_acc</t>
+  </si>
+  <si>
+    <t>pre_val_acc</t>
+  </si>
+  <si>
     <t>adam</t>
   </si>
   <si>
@@ -112,7 +139,58 @@
     <t>6.993538,6.999232,7.053918,6.974491,7.0552435</t>
   </si>
   <si>
-    <t>tf.Tensor(1416.6083, shape=(), dtype=float32)</t>
+    <t>19.207514,19.213203,19.267984,19.188576,19.269228</t>
+  </si>
+  <si>
+    <t>27.968283,27.974348,28.029345,27.949451</t>
+  </si>
+  <si>
+    <t>16.343903,16.349636,16.404215,16.3249</t>
+  </si>
+  <si>
+    <t>21.143461,21.149433,21.204353,21.124575</t>
+  </si>
+  <si>
+    <t>34.793102,34.799263,34.854336,34.77433</t>
+  </si>
+  <si>
+    <t>8.124245,8.129891,8.184519,8.105211</t>
+  </si>
+  <si>
+    <t>8.418213,8.424032,8.478827,8.399239</t>
+  </si>
+  <si>
+    <t>8.243465,8.249076,8.303842,8.224339</t>
+  </si>
+  <si>
+    <t>7.8923225,7.8979626,7.952651,7.873322</t>
+  </si>
+  <si>
+    <t>8.13892,8.14459,8.199302</t>
+  </si>
+  <si>
+    <t>7.800668,7.806369,7.8610435</t>
+  </si>
+  <si>
+    <t>8.231258,8.23694,8.291614</t>
+  </si>
+  <si>
+    <t>5.4204917,5.426189,5.4809055</t>
+  </si>
+  <si>
+    <t>5.4205084,5.4262033,5.4809084</t>
+  </si>
+  <si>
+    <t>8.401238,8.4069,8.461562</t>
+  </si>
+  <si>
+    <t>8.000233,8.005782,8.060438</t>
+  </si>
+  <si>
+    <t>7.991252,7.996929,8.051643</t>
+  </si>
+  <si>
+    <t>5.0858545,5.0915656,5.1462193</t>
   </si>
   <si>
     <t>make the pre-trained model better</t>
@@ -142,17 +220,77 @@
     <t>lowering the LR a bit nadam optimizer with lower  and embeds-ze=2</t>
   </si>
   <si>
+    <t>nadam optimizer with  LR=2 and embeds-ze=2</t>
+  </si>
+  <si>
     <t>rmsprop optimizer with  LR=2 and embeds-ze=2</t>
   </si>
   <si>
-    <t>nadam optimizer with  LR=2 and embeds-ze=2</t>
+    <t>changing the ukc class t0 6 with best setting of ablation 500</t>
+  </si>
+  <si>
+    <t>increasing the data with best setting of ablation 500</t>
+  </si>
+  <si>
+    <t>changing class ukc=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700-950 , num_class=4, gave pretrained f1 23, so adding more data </t>
+  </si>
+  <si>
+    <t>1000 data point dropped the f1, how is the status of ukc 4</t>
+  </si>
+  <si>
+    <t>1000 data point dropped the f1, how is the status of ukc 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">going back to ukc5 but lower LR </t>
+  </si>
+  <si>
+    <t>going back to ukc5 but lower LR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with adam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adam performs better when data is 1000, lets increse the lr a bit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">what about increasing embedding size=4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">increasing logit size improved. will more pre-training help? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">last two cases are indicating overfit due to lack of data. lets increase data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">overfit still exists, lets increase data </t>
+  </si>
+  <si>
+    <t>overfit solved but with radius 8, most of the data points are outside it seems. Should increase the embedding size ?</t>
+  </si>
+  <si>
+    <t>embedding size increase improved f1 . Lets increase more  ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lets increase more  ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> beyond 12 it is not improving.Lets Reduce it and increase data</t>
+  </si>
+  <si>
+    <t>good score achived with 1750 data, lets increase data</t>
+  </si>
+  <si>
+    <t>better score achived with 2000 data, lets increase data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,14 +353,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -269,7 +399,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,27 +431,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,24 +465,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,16 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,685 +696,2802 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>500</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="R2">
         <v>50</v>
       </c>
-      <c r="J2">
+      <c r="S2">
         <v>3</v>
       </c>
-      <c r="K2">
-        <v>0.66483992084716859</v>
-      </c>
-      <c r="L2">
-        <v>67.205100000000002</v>
-      </c>
-      <c r="M2">
-        <v>80.646100000000004</v>
-      </c>
-      <c r="N2">
+      <c r="T2">
+        <v>0.6648399208471686</v>
+      </c>
+      <c r="U2">
+        <v>67.2051</v>
+      </c>
+      <c r="V2">
+        <v>80.6461</v>
+      </c>
+      <c r="W2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>19</v>
+      <c r="X2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>1000</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="R3">
         <v>50</v>
       </c>
-      <c r="J3">
+      <c r="S3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>0.56487857796351526</v>
-      </c>
-      <c r="L3">
-        <v>64.300700000000006</v>
-      </c>
-      <c r="M3">
-        <v>69.827299999999994</v>
-      </c>
-      <c r="N3">
-        <v>42.194099999999999</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
+      <c r="T3">
+        <v>0.5648785779635153</v>
+      </c>
+      <c r="U3">
+        <v>64.30070000000001</v>
+      </c>
+      <c r="V3">
+        <v>69.82729999999999</v>
+      </c>
+      <c r="W3">
+        <v>42.1941</v>
+      </c>
+      <c r="X3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3">
+        <v>1416.6083</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
         <v>500</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="R4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="S4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>0.54142615802279903</v>
-      </c>
-      <c r="L4">
-        <v>53.323599999999999</v>
-      </c>
-      <c r="M4">
-        <v>55.261000000000003</v>
-      </c>
-      <c r="N4">
-        <v>43.636400000000002</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4">
+      <c r="T4">
+        <v>0.541426158022799</v>
+      </c>
+      <c r="U4">
+        <v>53.3236</v>
+      </c>
+      <c r="V4">
+        <v>55.261</v>
+      </c>
+      <c r="W4">
+        <v>43.6364</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4">
         <v>955.2093505859375</v>
       </c>
-      <c r="Q4" t="s">
-        <v>31</v>
+      <c r="Z4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
         <v>0.4682223729015893</v>
       </c>
-      <c r="L5">
+      <c r="U5">
         <v>46.15</v>
       </c>
-      <c r="M5">
-        <v>48.205100000000002</v>
-      </c>
-      <c r="N5">
-        <v>35.874400000000001</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5">
+      <c r="V5">
+        <v>48.2051</v>
+      </c>
+      <c r="W5">
+        <v>35.8744</v>
+      </c>
+      <c r="X5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y5">
         <v>1125.431518554688</v>
       </c>
-      <c r="Q5" t="s">
-        <v>32</v>
+      <c r="Z5" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="R6">
         <v>50</v>
       </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
         <v>0.4969430150797513</v>
       </c>
-      <c r="L6">
+      <c r="U6">
         <v>49.009</v>
       </c>
-      <c r="M6">
-        <v>51.452300000000001</v>
-      </c>
-      <c r="N6">
-        <v>36.792499999999997</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6">
+      <c r="V6">
+        <v>51.4523</v>
+      </c>
+      <c r="W6">
+        <v>36.7925</v>
+      </c>
+      <c r="X6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y6">
         <v>1125.13427734375</v>
       </c>
-      <c r="Q6" t="s">
-        <v>33</v>
+      <c r="Z6" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
         <v>500</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7">
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="R7">
         <v>50</v>
       </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>0.75613420914456919</v>
-      </c>
-      <c r="L7">
-        <v>76.259299999999996</v>
-      </c>
-      <c r="M7">
-        <v>91.511200000000002</v>
-      </c>
-      <c r="N7">
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>0.7561342091445692</v>
+      </c>
+      <c r="U7">
+        <v>76.2593</v>
+      </c>
+      <c r="V7">
+        <v>91.5112</v>
+      </c>
+      <c r="W7">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7">
+      <c r="X7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y7">
         <v>1125.478637695312</v>
       </c>
-      <c r="Q7" t="s">
-        <v>34</v>
+      <c r="Z7" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
         <v>500</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="O8">
         <v>0.5</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8">
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8">
         <v>14</v>
       </c>
-      <c r="I8">
+      <c r="R8">
         <v>50</v>
       </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>0.26211067971258889</v>
-      </c>
-      <c r="L8">
-        <v>25.785599999999999</v>
-      </c>
-      <c r="M8">
-        <v>24.456199999999999</v>
-      </c>
-      <c r="N8">
-        <v>32.432400000000001</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8">
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>0.2621106797125889</v>
+      </c>
+      <c r="U8">
+        <v>25.7856</v>
+      </c>
+      <c r="V8">
+        <v>24.4562</v>
+      </c>
+      <c r="W8">
+        <v>32.4324</v>
+      </c>
+      <c r="X8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8">
         <v>1126.793823242188</v>
       </c>
-      <c r="Q8" t="s">
-        <v>35</v>
+      <c r="Z8" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
         <v>500</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="O9">
         <v>0.5</v>
       </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9">
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="R9">
         <v>50</v>
       </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>0.26211067971258889</v>
-      </c>
-      <c r="L9">
-        <v>25.785599999999999</v>
-      </c>
-      <c r="M9">
-        <v>24.456199999999999</v>
-      </c>
-      <c r="N9">
-        <v>32.432400000000001</v>
-      </c>
-      <c r="O9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9">
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>0.2621106797125889</v>
+      </c>
+      <c r="U9">
+        <v>25.7856</v>
+      </c>
+      <c r="V9">
+        <v>24.4562</v>
+      </c>
+      <c r="W9">
+        <v>32.4324</v>
+      </c>
+      <c r="X9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y9">
         <v>1126.793823242188</v>
       </c>
-      <c r="Q9" t="s">
-        <v>36</v>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
         <v>500</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="R10">
         <v>50</v>
       </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>0.80316915758968388</v>
-      </c>
-      <c r="L10">
-        <v>80.539599999999993</v>
-      </c>
-      <c r="M10">
-        <v>87.847499999999997</v>
-      </c>
-      <c r="N10">
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>0.8031691575896839</v>
+      </c>
+      <c r="U10">
+        <v>80.53959999999999</v>
+      </c>
+      <c r="V10">
+        <v>87.8475</v>
+      </c>
+      <c r="W10">
         <v>44</v>
       </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10">
+      <c r="X10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10">
         <v>1127.74658203125</v>
       </c>
-      <c r="Q10" t="s">
-        <v>37</v>
+      <c r="Z10" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
         <v>500</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11">
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11">
         <v>14</v>
       </c>
-      <c r="I11">
+      <c r="R11">
         <v>50</v>
       </c>
-      <c r="J11">
-        <v>6</v>
-      </c>
-      <c r="K11">
-        <v>0.83117113643852947</v>
-      </c>
-      <c r="L11">
-        <v>83.429699999999997</v>
-      </c>
-      <c r="M11">
-        <v>90.431399999999996</v>
-      </c>
-      <c r="N11">
-        <v>48.421100000000003</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11">
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>0.8311711364385295</v>
+      </c>
+      <c r="U11">
+        <v>83.4297</v>
+      </c>
+      <c r="V11">
+        <v>90.4314</v>
+      </c>
+      <c r="W11">
+        <v>48.4211</v>
+      </c>
+      <c r="X11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y11">
         <v>957.549072265625</v>
       </c>
-      <c r="Q11" t="s">
-        <v>38</v>
+      <c r="Z11" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
         <v>500</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
         <v>1.5</v>
       </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12">
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="R12">
         <v>50</v>
       </c>
-      <c r="J12">
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <v>0.71449771155340636</v>
-      </c>
-      <c r="L12">
-        <v>71.146000000000001</v>
-      </c>
-      <c r="M12">
-        <v>75.625200000000007</v>
-      </c>
-      <c r="N12">
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>0.7144977115534064</v>
+      </c>
+      <c r="U12">
+        <v>71.146</v>
+      </c>
+      <c r="V12">
+        <v>75.62520000000001</v>
+      </c>
+      <c r="W12">
         <v>48.75</v>
       </c>
-      <c r="O12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12">
+      <c r="X12" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12">
         <v>954.7222900390625</v>
       </c>
-      <c r="Q12" t="s">
-        <v>39</v>
+      <c r="Z12" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
         <v>500</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13">
+        <v>14</v>
+      </c>
+      <c r="R13">
+        <v>50</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>0.8311711364385295</v>
+      </c>
+      <c r="U13">
+        <v>83.4297</v>
+      </c>
+      <c r="V13">
+        <v>90.4314</v>
+      </c>
+      <c r="W13">
+        <v>48.4211</v>
+      </c>
+      <c r="X13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y13">
+        <v>957.549072265625</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>500</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14">
+        <v>14</v>
+      </c>
+      <c r="R14">
+        <v>50</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>0.3504000282081201</v>
+      </c>
+      <c r="U14">
+        <v>34.4876</v>
+      </c>
+      <c r="V14">
+        <v>34.2578</v>
+      </c>
+      <c r="W14">
+        <v>35.6364</v>
+      </c>
+      <c r="X14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14">
+        <v>953.8157348632812</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>500</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15">
+        <v>14</v>
+      </c>
+      <c r="R15">
+        <v>50</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>0.9193429200642603</v>
+      </c>
+      <c r="U15">
+        <v>91.95950000000001</v>
+      </c>
+      <c r="V15">
+        <v>94.3514</v>
+      </c>
+      <c r="W15">
+        <v>80</v>
+      </c>
+      <c r="X15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y15">
+        <v>957.549072265625</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>600</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16">
+        <v>50</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>0.7105089985448705</v>
+      </c>
+      <c r="U16">
+        <v>71.35680000000001</v>
+      </c>
+      <c r="V16">
+        <v>79.2084</v>
+      </c>
+      <c r="W16">
+        <v>32.0988</v>
+      </c>
+      <c r="X16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16">
+        <v>494.4006652832031</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>15</v>
+      </c>
+      <c r="K17">
+        <v>600</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17">
+        <v>14</v>
+      </c>
+      <c r="R17">
+        <v>50</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>0.7319855896164523</v>
+      </c>
+      <c r="U17">
+        <v>73.45359999999999</v>
+      </c>
+      <c r="V17">
+        <v>80.1444</v>
+      </c>
+      <c r="W17">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y17">
+        <v>494.4006652832031</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>1000</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18">
+        <v>14</v>
+      </c>
+      <c r="R18">
+        <v>50</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>0.688142571454462</v>
+      </c>
+      <c r="U18">
+        <v>68.4593</v>
+      </c>
+      <c r="V18">
+        <v>82.60380000000001</v>
+      </c>
+      <c r="W18">
+        <v>11.8812</v>
+      </c>
+      <c r="X18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18">
+        <v>1416.574584960938</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="H13">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>17</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>1000</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="R19">
         <v>50</v>
       </c>
-      <c r="J13">
-        <v>6</v>
-      </c>
-      <c r="K13">
-        <v>0.83117113643852947</v>
-      </c>
-      <c r="L13">
-        <v>83.429699999999997</v>
-      </c>
-      <c r="M13">
-        <v>90.431399999999996</v>
-      </c>
-      <c r="N13">
-        <v>48.421100000000003</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>0.6700382803297997</v>
+      </c>
+      <c r="U19">
+        <v>61.7102</v>
+      </c>
+      <c r="V19">
+        <v>77.1378</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y19">
+        <v>1416.574584960938</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA19">
+        <v>0.9646875262260437</v>
+      </c>
+      <c r="AB19">
+        <v>0.9661458134651184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>18</v>
+      </c>
+      <c r="I20">
+        <v>18</v>
+      </c>
+      <c r="J20">
+        <v>18</v>
+      </c>
+      <c r="K20">
+        <v>1000</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>0.4704745523680051</v>
+      </c>
+      <c r="U20">
+        <v>45.0371</v>
+      </c>
+      <c r="V20">
+        <v>55.9896</v>
+      </c>
+      <c r="W20">
+        <v>1.227</v>
+      </c>
+      <c r="X20" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20">
+        <v>1416.583862304688</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA20">
+        <v>0.9646875262260437</v>
+      </c>
+      <c r="AB20">
+        <v>0.9661458134651184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>19</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21">
+        <v>19</v>
+      </c>
+      <c r="K21">
+        <v>1000</v>
+      </c>
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <v>1.5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q21">
+        <v>14</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21">
+        <v>8</v>
+      </c>
+      <c r="T21">
+        <v>0.47882377766811</v>
+      </c>
+      <c r="U21">
+        <v>53.4888</v>
+      </c>
+      <c r="V21">
+        <v>62.0301</v>
+      </c>
+      <c r="W21">
+        <v>19.3237</v>
+      </c>
+      <c r="X21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21">
+        <v>1416.592163085938</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA21">
+        <v>0.9646875262260437</v>
+      </c>
+      <c r="AB21">
+        <v>0.9661458134651184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>1000</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>2.5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q22">
+        <v>14</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>0.6539845131940385</v>
+      </c>
+      <c r="U22">
+        <v>65.70959999999999</v>
+      </c>
+      <c r="V22">
+        <v>82.137</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22">
+        <v>1416.592163085938</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA22">
+        <v>0.9646875262260437</v>
+      </c>
+      <c r="AB22">
+        <v>0.9661458134651184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>21</v>
+      </c>
+      <c r="I23">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23">
+        <v>1000</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>4</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2.5</v>
+      </c>
+      <c r="P23" t="s">
         <v>27</v>
       </c>
-      <c r="P13">
-        <v>957.549072265625</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>41</v>
+      <c r="Q23">
+        <v>14</v>
+      </c>
+      <c r="R23">
+        <v>100</v>
+      </c>
+      <c r="S23">
+        <v>8</v>
+      </c>
+      <c r="T23">
+        <v>0.5861543689162808</v>
+      </c>
+      <c r="U23">
+        <v>66.0038</v>
+      </c>
+      <c r="V23">
+        <v>70.6681</v>
+      </c>
+      <c r="W23">
+        <v>47.3469</v>
+      </c>
+      <c r="X23" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23">
+        <v>1416.593872070312</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA23">
+        <v>0.9646875262260437</v>
+      </c>
+      <c r="AB23">
+        <v>0.9661458134651184</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="24" spans="1:28">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
+      </c>
+      <c r="I24">
+        <v>22</v>
+      </c>
+      <c r="J24">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>1000</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24">
+        <v>4</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>2.5</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24">
+        <v>14</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="S24">
+        <v>8</v>
+      </c>
+      <c r="T24">
+        <v>0.5861543689162808</v>
+      </c>
+      <c r="U24">
+        <v>66.0038</v>
+      </c>
+      <c r="V24">
+        <v>70.6681</v>
+      </c>
+      <c r="W24">
+        <v>47.3469</v>
+      </c>
+      <c r="X24" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y24">
+        <v>1416.593872070312</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA24">
+        <v>0.9646875262260437</v>
+      </c>
+      <c r="AB24">
+        <v>0.9661458134651184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>23</v>
+      </c>
+      <c r="I25">
+        <v>23</v>
+      </c>
+      <c r="J25">
+        <v>23</v>
+      </c>
+      <c r="K25">
+        <v>1000</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+      <c r="R25">
+        <v>17</v>
+      </c>
+      <c r="S25">
+        <v>8</v>
+      </c>
+      <c r="T25">
+        <v>0.5809017922034035</v>
+      </c>
+      <c r="U25">
+        <v>65.58450000000001</v>
+      </c>
+      <c r="V25">
+        <v>70.458</v>
+      </c>
+      <c r="W25">
+        <v>46.0905</v>
+      </c>
+      <c r="X25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y25">
+        <v>1416.592163085938</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA25">
+        <v>0.9646875262260437</v>
+      </c>
+      <c r="AB25">
+        <v>0.9661458134651184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26">
+        <v>24</v>
+      </c>
+      <c r="K26">
+        <v>1000</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>2.5</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>14</v>
+      </c>
+      <c r="R26">
+        <v>31</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>0.6310852365038407</v>
+      </c>
+      <c r="U26">
+        <v>65.66630000000001</v>
+      </c>
+      <c r="V26">
+        <v>67.77</v>
+      </c>
+      <c r="W26">
+        <v>57.2519</v>
+      </c>
+      <c r="X26" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y26">
+        <v>420.2345886230469</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA26">
+        <v>0.996874988079071</v>
+      </c>
+      <c r="AB26">
+        <v>0.9921875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>25</v>
+      </c>
+      <c r="J27">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>500</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14">
-        <v>14</v>
-      </c>
-      <c r="I14">
+      <c r="K27">
+        <v>1000</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>2.5</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27">
+        <v>16</v>
+      </c>
+      <c r="R27">
+        <v>24</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+      <c r="T27">
+        <v>0.6772429243848282</v>
+      </c>
+      <c r="U27">
+        <v>73.2782</v>
+      </c>
+      <c r="V27">
+        <v>74.87179999999999</v>
+      </c>
+      <c r="W27">
+        <v>66.90389999999999</v>
+      </c>
+      <c r="X27" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y27">
+        <v>366.1825256347656</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA27">
+        <v>0.9990624785423279</v>
+      </c>
+      <c r="AB27">
+        <v>0.9973958134651184</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>26</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1250</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>2.5</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <v>16</v>
+      </c>
+      <c r="R28">
+        <v>30</v>
+      </c>
+      <c r="S28">
+        <v>8</v>
+      </c>
+      <c r="T28">
+        <v>0.6103361475922451</v>
+      </c>
+      <c r="U28">
+        <v>61.1069</v>
+      </c>
+      <c r="V28">
+        <v>63.5897</v>
+      </c>
+      <c r="W28">
+        <v>53.6585</v>
+      </c>
+      <c r="X28" t="s">
         <v>50</v>
       </c>
-      <c r="J14">
-        <v>6</v>
-      </c>
-      <c r="K14">
-        <v>0.35040002820812011</v>
-      </c>
-      <c r="L14">
-        <v>34.4876</v>
-      </c>
-      <c r="M14">
-        <v>34.257800000000003</v>
-      </c>
-      <c r="N14">
-        <v>35.636400000000002</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="Y28">
+        <v>351.4083862304688</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1500</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>2.5</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>16</v>
+      </c>
+      <c r="R29">
+        <v>21</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>0.434978203013628</v>
+      </c>
+      <c r="U29">
+        <v>43.9342</v>
+      </c>
+      <c r="V29">
+        <v>41.4634</v>
+      </c>
+      <c r="W29">
+        <v>51.3465</v>
+      </c>
+      <c r="X29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y29">
+        <v>1551.62841796875</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>28</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1500</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>2.5</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>28</v>
+      </c>
+      <c r="S30">
+        <v>8</v>
+      </c>
+      <c r="T30">
+        <v>0.5908397998407255</v>
+      </c>
+      <c r="U30">
+        <v>59.5078</v>
+      </c>
+      <c r="V30">
+        <v>60.6592</v>
+      </c>
+      <c r="W30">
+        <v>56.0538</v>
+      </c>
+      <c r="X30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y30">
+        <v>1116.225830078125</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="P14">
-        <v>953.81573486328125</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>40</v>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1500</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>8</v>
+      </c>
+      <c r="O31">
+        <v>2.5</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>10</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>0.6250210832083958</v>
+      </c>
+      <c r="U31">
+        <v>62.9573</v>
+      </c>
+      <c r="V31">
+        <v>63.2184</v>
+      </c>
+      <c r="W31">
+        <v>62.1739</v>
+      </c>
+      <c r="X31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y31">
+        <v>511.5006408691406</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1500</v>
+      </c>
+      <c r="L32">
+        <v>5</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>2.5</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32">
+        <v>6</v>
+      </c>
+      <c r="R32">
+        <v>10</v>
+      </c>
+      <c r="S32">
+        <v>8</v>
+      </c>
+      <c r="T32">
+        <v>0.6257050125108751</v>
+      </c>
+      <c r="U32">
+        <v>63.0214</v>
+      </c>
+      <c r="V32">
+        <v>63.4252</v>
+      </c>
+      <c r="W32">
+        <v>61.8102</v>
+      </c>
+      <c r="X32" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y32">
+        <v>462.2362976074219</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1500</v>
+      </c>
+      <c r="L33">
+        <v>5</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>16</v>
+      </c>
+      <c r="O33">
+        <v>2.5</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33">
+        <v>6</v>
+      </c>
+      <c r="R33">
+        <v>34</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>0.5158024859259058</v>
+      </c>
+      <c r="U33">
+        <v>51.9707</v>
+      </c>
+      <c r="V33">
+        <v>53.6761</v>
+      </c>
+      <c r="W33">
+        <v>46.8547</v>
+      </c>
+      <c r="X33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33">
+        <v>597.957763671875</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1750</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <v>2.5</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>21</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34">
+        <v>0.9821230957322555</v>
+      </c>
+      <c r="U34">
+        <v>98.16759999999999</v>
+      </c>
+      <c r="V34">
+        <v>98.8471</v>
+      </c>
+      <c r="W34">
+        <v>96.129</v>
+      </c>
+      <c r="X34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y34">
+        <v>385.962158203125</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34">
+        <v>0.990234375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2000</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <v>2.5</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35">
+        <v>6</v>
+      </c>
+      <c r="R35">
+        <v>19</v>
+      </c>
+      <c r="S35">
+        <v>8</v>
+      </c>
+      <c r="T35">
+        <v>0.9931753861183268</v>
+      </c>
+      <c r="U35">
+        <v>99.2872</v>
+      </c>
+      <c r="V35">
+        <v>99.5754</v>
+      </c>
+      <c r="W35">
+        <v>98.42270000000001</v>
+      </c>
+      <c r="X35" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35">
+        <v>340.3261108398438</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>2500</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>12</v>
+      </c>
+      <c r="O36">
+        <v>2.5</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36">
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <v>8</v>
+      </c>
+      <c r="S36">
+        <v>8</v>
+      </c>
+      <c r="T36">
+        <v>0.9759361754411993</v>
+      </c>
+      <c r="U36">
+        <v>97.2641</v>
+      </c>
+      <c r="V36">
+        <v>98.4716</v>
+      </c>
+      <c r="W36">
+        <v>93.6416</v>
+      </c>
+      <c r="X36" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y36">
+        <v>506.2517395019531</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/oclog/openset/notebooks/tracker.xlsx
+++ b/oclog/openset/notebooks/tracker.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bhujay_ROG\MyDev\OCLog\oclog\openset\notebooks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD1D51-DCB0-4219-B5A6-21637DBD718C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="684" windowWidth="21156" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>ablation</t>
   </si>
@@ -190,6 +190,42 @@
     <t>8.889875,8.895617,8.950204</t>
   </si>
   <si>
+    <t>8.876045,8.88159,8.93639</t>
+  </si>
+  <si>
+    <t>8.8898325,8.895605,8.950283</t>
+  </si>
+  <si>
+    <t>8.883269,8.8890295,8.943727</t>
+  </si>
+  <si>
+    <t>8.8833065,8.88892,8.943608</t>
+  </si>
+  <si>
+    <t>8.872322,8.87801,8.932601</t>
+  </si>
+  <si>
+    <t>8.889619,8.89532,8.950037</t>
+  </si>
+  <si>
+    <t>8.887793,8.89349,8.948126</t>
+  </si>
+  <si>
+    <t>8.888987,8.894795</t>
+  </si>
+  <si>
+    <t>6.642053,6.647793</t>
+  </si>
+  <si>
+    <t>8.890916,8.89661</t>
+  </si>
+  <si>
+    <t>8.888643,8.894331</t>
+  </si>
+  <si>
+    <t>8.845131,8.850864</t>
+  </si>
+  <si>
     <t>make the pre-trained model better</t>
   </si>
   <si>
@@ -308,13 +344,46 @@
   </si>
   <si>
     <t xml:space="preserve">more pre-training helped, lets increase the wait also </t>
+  </si>
+  <si>
+    <t>data 3000</t>
+  </si>
+  <si>
+    <t>huge drop in score, lets increase the pretraining</t>
+  </si>
+  <si>
+    <t>increasing pre-training not helping, lets decrease</t>
+  </si>
+  <si>
+    <t>increasing pretraining a bit more</t>
+  </si>
+  <si>
+    <t>training not increasing indicates learning probelm, lets increase em size</t>
+  </si>
+  <si>
+    <t>em size increase by 2 did very good, what happens if we increase further</t>
+  </si>
+  <si>
+    <t>em size 16 with 3000 99pct, now lets go for 4000 data</t>
+  </si>
+  <si>
+    <t>500 data , more pre-training</t>
+  </si>
+  <si>
+    <t>10000 data , more pre-training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">increase emsize a bit </t>
+  </si>
+  <si>
+    <t>increase emsize more</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,14 +446,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -431,7 +492,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,27 +524,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,24 +558,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,16 +733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,2490 +795,3596 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>500</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
       <c r="J2">
         <v>3</v>
       </c>
       <c r="K2">
-        <v>0.66483992084716859</v>
+        <v>50</v>
       </c>
       <c r="L2">
-        <v>67.205100000000002</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>80.646100000000004</v>
+        <v>0.6648399208471686</v>
       </c>
       <c r="N2">
+        <v>67.2051</v>
+      </c>
+      <c r="O2">
+        <v>80.6461</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>1000</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>50</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>0.56487857796351526</v>
-      </c>
-      <c r="L3">
-        <v>64.300700000000006</v>
-      </c>
       <c r="M3">
-        <v>69.827299999999994</v>
+        <v>0.5648785779635153</v>
       </c>
       <c r="N3">
-        <v>42.194099999999999</v>
-      </c>
-      <c r="O3" t="s">
-        <v>22</v>
+        <v>64.30070000000001</v>
+      </c>
+      <c r="O3">
+        <v>69.82729999999999</v>
       </c>
       <c r="P3">
-        <v>1416.6083000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>42.1941</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>1416.6083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>500</v>
       </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>50</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>0.54142615802279903</v>
-      </c>
-      <c r="L4">
-        <v>53.323599999999999</v>
-      </c>
       <c r="M4">
-        <v>55.261000000000003</v>
+        <v>0.541426158022799</v>
       </c>
       <c r="N4">
-        <v>43.636400000000002</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
+        <v>53.3236</v>
+      </c>
+      <c r="O4">
+        <v>55.261</v>
       </c>
       <c r="P4">
+        <v>43.6364</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4">
         <v>955.2093505859375</v>
       </c>
-      <c r="S4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>500</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>0.4682223729015893</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>46.15</v>
       </c>
-      <c r="M5">
-        <v>48.205100000000002</v>
-      </c>
-      <c r="N5">
-        <v>35.874400000000001</v>
-      </c>
-      <c r="O5" t="s">
-        <v>24</v>
+      <c r="O5">
+        <v>48.2051</v>
       </c>
       <c r="P5">
+        <v>35.8744</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5">
         <v>1125.431518554688</v>
       </c>
-      <c r="S5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>500</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>50</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.4969430150797513</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>49.009</v>
       </c>
-      <c r="M6">
-        <v>51.452300000000001</v>
-      </c>
-      <c r="N6">
-        <v>36.792499999999997</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
+      <c r="O6">
+        <v>51.4523</v>
       </c>
       <c r="P6">
+        <v>36.7925</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6">
         <v>1125.13427734375</v>
       </c>
-      <c r="S6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>500</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
       <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
       <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
         <v>14</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>0.75613420914456919</v>
-      </c>
-      <c r="L7">
-        <v>76.259299999999996</v>
-      </c>
       <c r="M7">
-        <v>91.511200000000002</v>
+        <v>0.7561342091445692</v>
       </c>
       <c r="N7">
+        <v>76.2593</v>
+      </c>
+      <c r="O7">
+        <v>91.5112</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7">
+      <c r="Q7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7">
         <v>1125.478637695312</v>
       </c>
-      <c r="S7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
         <v>500</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
       <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.5</v>
       </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8">
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8">
         <v>14</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>50</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>6</v>
       </c>
-      <c r="K8">
-        <v>0.26211067971258889</v>
-      </c>
-      <c r="L8">
-        <v>25.785599999999999</v>
-      </c>
       <c r="M8">
-        <v>24.456199999999999</v>
+        <v>0.2621106797125889</v>
       </c>
       <c r="N8">
-        <v>32.432400000000001</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
+        <v>25.7856</v>
+      </c>
+      <c r="O8">
+        <v>24.4562</v>
       </c>
       <c r="P8">
+        <v>32.4324</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8">
         <v>1126.793823242188</v>
       </c>
-      <c r="S8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
         <v>500</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
       <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.5</v>
       </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>50</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>6</v>
       </c>
-      <c r="K9">
-        <v>0.26211067971258889</v>
-      </c>
-      <c r="L9">
-        <v>25.785599999999999</v>
-      </c>
       <c r="M9">
-        <v>24.456199999999999</v>
+        <v>0.2621106797125889</v>
       </c>
       <c r="N9">
-        <v>32.432400000000001</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
+        <v>25.7856</v>
+      </c>
+      <c r="O9">
+        <v>24.4562</v>
       </c>
       <c r="P9">
+        <v>32.4324</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9">
         <v>1126.793823242188</v>
       </c>
-      <c r="S9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>500</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
       <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>50</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>6</v>
       </c>
-      <c r="K10">
-        <v>0.80316915758968388</v>
-      </c>
-      <c r="L10">
-        <v>80.539599999999993</v>
-      </c>
       <c r="M10">
-        <v>87.847499999999997</v>
+        <v>0.8031691575896839</v>
       </c>
       <c r="N10">
+        <v>80.53959999999999</v>
+      </c>
+      <c r="O10">
+        <v>87.8475</v>
+      </c>
+      <c r="P10">
         <v>44</v>
       </c>
-      <c r="O10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10">
+      <c r="Q10" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10">
         <v>1127.74658203125</v>
       </c>
-      <c r="S10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
         <v>500</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
       <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
         <v>14</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>50</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>6</v>
       </c>
-      <c r="K11">
-        <v>0.83117113643852947</v>
-      </c>
-      <c r="L11">
-        <v>83.429699999999997</v>
-      </c>
       <c r="M11">
-        <v>90.431399999999996</v>
+        <v>0.8311711364385295</v>
       </c>
       <c r="N11">
-        <v>48.421100000000003</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
+        <v>83.4297</v>
+      </c>
+      <c r="O11">
+        <v>90.4314</v>
       </c>
       <c r="P11">
+        <v>48.4211</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11">
         <v>957.549072265625</v>
       </c>
-      <c r="S11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
         <v>500</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
       <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>1.5</v>
       </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12">
+      <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
         <v>14</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>50</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>6</v>
       </c>
-      <c r="K12">
-        <v>0.71449771155340636</v>
-      </c>
-      <c r="L12">
-        <v>71.146000000000001</v>
-      </c>
       <c r="M12">
-        <v>75.625200000000007</v>
+        <v>0.7144977115534064</v>
       </c>
       <c r="N12">
+        <v>71.146</v>
+      </c>
+      <c r="O12">
+        <v>75.62520000000001</v>
+      </c>
+      <c r="P12">
         <v>48.75</v>
       </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12">
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12">
         <v>954.7222900390625</v>
       </c>
-      <c r="S12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
         <v>500</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
       <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13">
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>50</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>6</v>
       </c>
-      <c r="K13">
-        <v>0.83117113643852947</v>
-      </c>
-      <c r="L13">
-        <v>83.429699999999997</v>
-      </c>
       <c r="M13">
-        <v>90.431399999999996</v>
+        <v>0.8311711364385295</v>
       </c>
       <c r="N13">
-        <v>48.421100000000003</v>
-      </c>
-      <c r="O13" t="s">
-        <v>29</v>
+        <v>83.4297</v>
+      </c>
+      <c r="O13">
+        <v>90.4314</v>
       </c>
       <c r="P13">
+        <v>48.4211</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13">
         <v>957.549072265625</v>
       </c>
-      <c r="S13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
         <v>500</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
       <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14">
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14">
         <v>14</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>50</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="K14">
-        <v>0.35040002820812011</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>0.3504000282081201</v>
+      </c>
+      <c r="N14">
         <v>34.4876</v>
       </c>
-      <c r="M14">
-        <v>34.257800000000003</v>
-      </c>
-      <c r="N14">
-        <v>35.636400000000002</v>
-      </c>
-      <c r="O14" t="s">
-        <v>31</v>
+      <c r="O14">
+        <v>34.2578</v>
       </c>
       <c r="P14">
-        <v>953.81573486328125</v>
-      </c>
-      <c r="S14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>35.6364</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14">
+        <v>953.8157348632812</v>
+      </c>
+      <c r="U14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
         <v>500</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15">
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>50</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>6</v>
       </c>
-      <c r="K15">
-        <v>0.91934292006426033</v>
-      </c>
-      <c r="L15">
-        <v>91.959500000000006</v>
-      </c>
       <c r="M15">
-        <v>94.351399999999998</v>
+        <v>0.9193429200642603</v>
       </c>
       <c r="N15">
+        <v>91.95950000000001</v>
+      </c>
+      <c r="O15">
+        <v>94.3514</v>
+      </c>
+      <c r="P15">
         <v>80</v>
       </c>
-      <c r="O15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15">
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15">
         <v>957.549072265625</v>
       </c>
-      <c r="S15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
         <v>600</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
       <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16">
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
         <v>14</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>50</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="K16">
-        <v>0.71050899854487048</v>
-      </c>
-      <c r="L16">
-        <v>71.356800000000007</v>
-      </c>
       <c r="M16">
-        <v>79.208399999999997</v>
+        <v>0.7105089985448705</v>
       </c>
       <c r="N16">
-        <v>32.098799999999997</v>
-      </c>
-      <c r="O16" t="s">
-        <v>32</v>
+        <v>71.35680000000001</v>
+      </c>
+      <c r="O16">
+        <v>79.2084</v>
       </c>
       <c r="P16">
-        <v>494.40066528320313</v>
-      </c>
-      <c r="S16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>32.0988</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>494.4006652832031</v>
+      </c>
+      <c r="U16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
         <v>600</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17">
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
         <v>14</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>50</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>6</v>
       </c>
-      <c r="K17">
-        <v>0.73198558961645233</v>
-      </c>
-      <c r="L17">
-        <v>73.453599999999994</v>
-      </c>
       <c r="M17">
-        <v>80.144400000000005</v>
+        <v>0.7319855896164523</v>
       </c>
       <c r="N17">
+        <v>73.45359999999999</v>
+      </c>
+      <c r="O17">
+        <v>80.1444</v>
+      </c>
+      <c r="P17">
         <v>40</v>
       </c>
-      <c r="O17" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17">
-        <v>494.40066528320313</v>
-      </c>
-      <c r="S17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q17" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17">
+        <v>494.4006652832031</v>
+      </c>
+      <c r="U17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
         <v>1000</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18">
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
         <v>14</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>50</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>6</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.688142571454462</v>
       </c>
-      <c r="L18">
-        <v>68.459299999999999</v>
-      </c>
-      <c r="M18">
-        <v>82.603800000000007</v>
-      </c>
       <c r="N18">
+        <v>68.4593</v>
+      </c>
+      <c r="O18">
+        <v>82.60380000000001</v>
+      </c>
+      <c r="P18">
         <v>11.8812</v>
       </c>
-      <c r="O18" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18">
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18">
         <v>1416.574584960938</v>
       </c>
-      <c r="S18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
         <v>1000</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19">
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
         <v>14</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>50</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>6</v>
       </c>
-      <c r="K19">
-        <v>0.67003828032979973</v>
-      </c>
-      <c r="L19">
+      <c r="M19">
+        <v>0.6700382803297997</v>
+      </c>
+      <c r="N19">
         <v>61.7102</v>
       </c>
-      <c r="M19">
-        <v>77.137799999999999</v>
-      </c>
-      <c r="N19">
+      <c r="O19">
+        <v>77.1378</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
-      <c r="O19" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19">
+      <c r="Q19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19">
         <v>1416.574584960938</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>0.9646875262260437</v>
       </c>
-      <c r="R19">
-        <v>0.96614581346511841</v>
-      </c>
-      <c r="S19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <v>0.9661458134651184</v>
+      </c>
+      <c r="U19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
         <v>1000</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20">
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
         <v>14</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>6</v>
       </c>
-      <c r="K20">
-        <v>0.47047455236800512</v>
-      </c>
-      <c r="L20">
-        <v>45.037100000000002</v>
-      </c>
       <c r="M20">
-        <v>55.989600000000003</v>
+        <v>0.4704745523680051</v>
       </c>
       <c r="N20">
-        <v>1.2270000000000001</v>
-      </c>
-      <c r="O20" t="s">
-        <v>34</v>
+        <v>45.0371</v>
+      </c>
+      <c r="O20">
+        <v>55.9896</v>
       </c>
       <c r="P20">
+        <v>1.227</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>36</v>
+      </c>
+      <c r="R20">
         <v>1416.583862304688</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>0.9646875262260437</v>
       </c>
-      <c r="R20">
-        <v>0.96614581346511841</v>
-      </c>
-      <c r="S20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <v>0.9661458134651184</v>
+      </c>
+      <c r="U20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
         <v>1000</v>
       </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>1.5</v>
       </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21">
+      <c r="I21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
         <v>14</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>100</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>8</v>
       </c>
-      <c r="K21">
-        <v>0.47882377766811002</v>
-      </c>
-      <c r="L21">
-        <v>53.488799999999998</v>
-      </c>
       <c r="M21">
-        <v>62.030099999999997</v>
+        <v>0.47882377766811</v>
       </c>
       <c r="N21">
-        <v>19.323699999999999</v>
-      </c>
-      <c r="O21" t="s">
-        <v>35</v>
+        <v>53.4888</v>
+      </c>
+      <c r="O21">
+        <v>62.0301</v>
       </c>
       <c r="P21">
+        <v>19.3237</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21">
         <v>1416.592163085938</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>0.9646875262260437</v>
       </c>
-      <c r="R21">
-        <v>0.96614581346511841</v>
-      </c>
-      <c r="S21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <v>0.9661458134651184</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
         <v>1000</v>
       </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>2</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>2.5</v>
       </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22">
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
         <v>14</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>100</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>8</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.6539845131940385</v>
       </c>
-      <c r="L22">
-        <v>65.709599999999995</v>
-      </c>
-      <c r="M22">
+      <c r="N22">
+        <v>65.70959999999999</v>
+      </c>
+      <c r="O22">
         <v>82.137</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>0</v>
       </c>
-      <c r="O22" t="s">
-        <v>36</v>
-      </c>
-      <c r="P22">
+      <c r="Q22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22">
         <v>1416.592163085938</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>0.9646875262260437</v>
       </c>
-      <c r="R22">
-        <v>0.96614581346511841</v>
-      </c>
-      <c r="S22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <v>0.9661458134651184</v>
+      </c>
+      <c r="U22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
         <v>1000</v>
       </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>2</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>2.5</v>
       </c>
-      <c r="G23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23">
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23">
         <v>14</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>100</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="K23">
-        <v>0.58615436891628081</v>
-      </c>
-      <c r="L23">
-        <v>66.003799999999998</v>
-      </c>
       <c r="M23">
-        <v>70.668099999999995</v>
+        <v>0.5861543689162808</v>
       </c>
       <c r="N23">
-        <v>47.346899999999998</v>
-      </c>
-      <c r="O23" t="s">
-        <v>37</v>
+        <v>66.0038</v>
+      </c>
+      <c r="O23">
+        <v>70.6681</v>
       </c>
       <c r="P23">
+        <v>47.3469</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23">
         <v>1416.593872070312</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>0.9646875262260437</v>
       </c>
-      <c r="R23">
-        <v>0.96614581346511841</v>
-      </c>
-      <c r="S23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <v>0.9661458134651184</v>
+      </c>
+      <c r="U23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
         <v>1000</v>
       </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>2.5</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24">
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
         <v>14</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>100</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>8</v>
       </c>
-      <c r="K24">
-        <v>0.58615436891628081</v>
-      </c>
-      <c r="L24">
-        <v>66.003799999999998</v>
-      </c>
       <c r="M24">
-        <v>70.668099999999995</v>
+        <v>0.5861543689162808</v>
       </c>
       <c r="N24">
-        <v>47.346899999999998</v>
-      </c>
-      <c r="O24" t="s">
-        <v>37</v>
+        <v>66.0038</v>
+      </c>
+      <c r="O24">
+        <v>70.6681</v>
       </c>
       <c r="P24">
+        <v>47.3469</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24">
         <v>1416.593872070312</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>0.9646875262260437</v>
       </c>
-      <c r="R24">
-        <v>0.96614581346511841</v>
-      </c>
-      <c r="S24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <v>0.9661458134651184</v>
+      </c>
+      <c r="U24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
         <v>1000</v>
       </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>3</v>
       </c>
-      <c r="G25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25">
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25">
         <v>14</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>17</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>8</v>
       </c>
-      <c r="K25">
-        <v>0.58090179220340354</v>
-      </c>
-      <c r="L25">
-        <v>65.584500000000006</v>
-      </c>
       <c r="M25">
-        <v>70.457999999999998</v>
+        <v>0.5809017922034035</v>
       </c>
       <c r="N25">
-        <v>46.090499999999999</v>
-      </c>
-      <c r="O25" t="s">
-        <v>38</v>
+        <v>65.58450000000001</v>
+      </c>
+      <c r="O25">
+        <v>70.458</v>
       </c>
       <c r="P25">
+        <v>46.0905</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25">
         <v>1416.592163085938</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0.9646875262260437</v>
       </c>
-      <c r="R25">
-        <v>0.96614581346511841</v>
-      </c>
-      <c r="S25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <v>0.9661458134651184</v>
+      </c>
+      <c r="U25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
         <v>1000</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
         <v>4</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>2.5</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26">
+      <c r="I26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26">
         <v>14</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>31</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>8</v>
       </c>
-      <c r="K26">
-        <v>0.63108523650384074</v>
-      </c>
-      <c r="L26">
-        <v>65.666300000000007</v>
-      </c>
       <c r="M26">
+        <v>0.6310852365038407</v>
+      </c>
+      <c r="N26">
+        <v>65.66630000000001</v>
+      </c>
+      <c r="O26">
         <v>67.77</v>
       </c>
-      <c r="N26">
-        <v>57.251899999999999</v>
-      </c>
-      <c r="O26" t="s">
-        <v>39</v>
-      </c>
       <c r="P26">
-        <v>420.23458862304688</v>
-      </c>
-      <c r="Q26">
-        <v>0.99687498807907104</v>
+        <v>57.2519</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>41</v>
       </c>
       <c r="R26">
+        <v>420.2345886230469</v>
+      </c>
+      <c r="S26">
+        <v>0.996874988079071</v>
+      </c>
+      <c r="T26">
         <v>0.9921875</v>
       </c>
-      <c r="S26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
         <v>1000</v>
       </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27">
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>2.5</v>
       </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27">
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27">
         <v>16</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>24</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>8</v>
       </c>
-      <c r="K27">
-        <v>0.67724292438482825</v>
-      </c>
-      <c r="L27">
-        <v>73.278199999999998</v>
-      </c>
       <c r="M27">
-        <v>74.871799999999993</v>
+        <v>0.6772429243848282</v>
       </c>
       <c r="N27">
-        <v>66.903899999999993</v>
-      </c>
-      <c r="O27" t="s">
-        <v>40</v>
+        <v>73.2782</v>
+      </c>
+      <c r="O27">
+        <v>74.87179999999999</v>
       </c>
       <c r="P27">
-        <v>366.18252563476563</v>
-      </c>
-      <c r="Q27">
-        <v>0.99906247854232788</v>
+        <v>66.90389999999999</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>42</v>
       </c>
       <c r="R27">
-        <v>0.99739581346511841</v>
-      </c>
-      <c r="S27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+        <v>366.1825256347656</v>
+      </c>
+      <c r="S27">
+        <v>0.9990624785423279</v>
+      </c>
+      <c r="T27">
+        <v>0.9973958134651184</v>
+      </c>
+      <c r="U27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
         <v>1250</v>
       </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="D28">
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>2.5</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28">
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28">
         <v>16</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>30</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>8</v>
       </c>
-      <c r="K28">
-        <v>0.61033614759224508</v>
-      </c>
-      <c r="L28">
-        <v>61.106900000000003</v>
-      </c>
       <c r="M28">
-        <v>63.589700000000001</v>
+        <v>0.6103361475922451</v>
       </c>
       <c r="N28">
-        <v>53.658499999999997</v>
-      </c>
-      <c r="O28" t="s">
-        <v>41</v>
+        <v>61.1069</v>
+      </c>
+      <c r="O28">
+        <v>63.5897</v>
       </c>
       <c r="P28">
-        <v>351.40838623046881</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
+        <v>53.6585</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>43</v>
       </c>
       <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+        <v>351.4083862304688</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
         <v>1500</v>
       </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>4</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>2.5</v>
       </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29">
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29">
         <v>16</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>21</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>8</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.434978203013628</v>
       </c>
-      <c r="L29">
-        <v>43.934199999999997</v>
-      </c>
-      <c r="M29">
+      <c r="N29">
+        <v>43.9342</v>
+      </c>
+      <c r="O29">
         <v>41.4634</v>
       </c>
-      <c r="N29">
-        <v>51.346499999999999</v>
-      </c>
-      <c r="O29" t="s">
-        <v>42</v>
-      </c>
       <c r="P29">
+        <v>51.3465</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29">
         <v>1551.62841796875</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
         <v>1500</v>
       </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30">
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>6</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>2.5</v>
       </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30">
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30">
         <v>6</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>28</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>8</v>
       </c>
-      <c r="K30">
-        <v>0.59083979984072554</v>
-      </c>
-      <c r="L30">
-        <v>59.507800000000003</v>
-      </c>
       <c r="M30">
-        <v>60.659199999999998</v>
+        <v>0.5908397998407255</v>
       </c>
       <c r="N30">
-        <v>56.053800000000003</v>
-      </c>
-      <c r="O30" t="s">
-        <v>43</v>
+        <v>59.5078</v>
+      </c>
+      <c r="O30">
+        <v>60.6592</v>
       </c>
       <c r="P30">
+        <v>56.0538</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30">
         <v>1116.225830078125</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="R30">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
         <v>1500</v>
       </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>8</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>2.5</v>
       </c>
-      <c r="G31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31">
+      <c r="I31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31">
         <v>6</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>10</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>8</v>
       </c>
-      <c r="K31">
-        <v>0.62502108320839578</v>
-      </c>
-      <c r="L31">
-        <v>62.957299999999996</v>
-      </c>
       <c r="M31">
-        <v>63.218400000000003</v>
+        <v>0.6250210832083958</v>
       </c>
       <c r="N31">
-        <v>62.173900000000003</v>
-      </c>
-      <c r="O31" t="s">
-        <v>44</v>
+        <v>62.9573</v>
+      </c>
+      <c r="O31">
+        <v>63.2184</v>
       </c>
       <c r="P31">
-        <v>511.50064086914063</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
+        <v>62.1739</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>46</v>
       </c>
       <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+        <v>511.5006408691406</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
         <v>1500</v>
       </c>
-      <c r="C32">
-        <v>5</v>
-      </c>
-      <c r="D32">
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
         <v>3</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>12</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>2.5</v>
       </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32">
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32">
         <v>6</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>10</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>8</v>
       </c>
-      <c r="K32">
-        <v>0.62570501251087507</v>
-      </c>
-      <c r="L32">
+      <c r="M32">
+        <v>0.6257050125108751</v>
+      </c>
+      <c r="N32">
         <v>63.0214</v>
       </c>
-      <c r="M32">
-        <v>63.425199999999997</v>
-      </c>
-      <c r="N32">
-        <v>61.810200000000002</v>
-      </c>
-      <c r="O32" t="s">
-        <v>45</v>
+      <c r="O32">
+        <v>63.4252</v>
       </c>
       <c r="P32">
-        <v>462.23629760742188</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
+        <v>61.8102</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
       </c>
       <c r="R32">
-        <v>1</v>
-      </c>
-      <c r="S32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+        <v>462.2362976074219</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
         <v>1500</v>
       </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>16</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>2.5</v>
       </c>
-      <c r="G33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33">
+      <c r="I33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33">
         <v>6</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>34</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>8</v>
       </c>
-      <c r="K33">
-        <v>0.51580248592590583</v>
-      </c>
-      <c r="L33">
-        <v>51.970700000000001</v>
-      </c>
       <c r="M33">
-        <v>53.676099999999998</v>
+        <v>0.5158024859259058</v>
       </c>
       <c r="N33">
-        <v>46.854700000000001</v>
-      </c>
-      <c r="O33" t="s">
-        <v>46</v>
+        <v>51.9707</v>
+      </c>
+      <c r="O33">
+        <v>53.6761</v>
       </c>
       <c r="P33">
+        <v>46.8547</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>48</v>
+      </c>
+      <c r="R33">
         <v>597.957763671875</v>
       </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
-      </c>
-      <c r="S33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
         <v>1750</v>
       </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="D34">
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>12</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>2.5</v>
       </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34">
+      <c r="I34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34">
         <v>6</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>21</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>8</v>
       </c>
-      <c r="K34">
-        <v>0.98212309573225554</v>
-      </c>
-      <c r="L34">
-        <v>98.167599999999993</v>
-      </c>
       <c r="M34">
-        <v>98.847099999999998</v>
+        <v>0.9821230957322555</v>
       </c>
       <c r="N34">
-        <v>96.129000000000005</v>
-      </c>
-      <c r="O34" t="s">
-        <v>47</v>
+        <v>98.16759999999999</v>
+      </c>
+      <c r="O34">
+        <v>98.8471</v>
       </c>
       <c r="P34">
+        <v>96.129</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>49</v>
+      </c>
+      <c r="R34">
         <v>385.962158203125</v>
       </c>
-      <c r="Q34">
-        <v>1</v>
-      </c>
-      <c r="R34">
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
         <v>0.990234375</v>
       </c>
-      <c r="S34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
         <v>2000</v>
       </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>12</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>2.5</v>
       </c>
-      <c r="G35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35">
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35">
         <v>6</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>19</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>8</v>
       </c>
-      <c r="K35">
-        <v>0.99317538611832679</v>
-      </c>
-      <c r="L35">
-        <v>99.287199999999999</v>
-      </c>
       <c r="M35">
-        <v>99.575400000000002</v>
+        <v>0.9931753861183268</v>
       </c>
       <c r="N35">
-        <v>98.422700000000006</v>
-      </c>
-      <c r="O35" t="s">
-        <v>48</v>
+        <v>99.2872</v>
+      </c>
+      <c r="O35">
+        <v>99.5754</v>
       </c>
       <c r="P35">
-        <v>340.32611083984381</v>
-      </c>
-      <c r="Q35">
-        <v>1</v>
+        <v>98.42270000000001</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>50</v>
       </c>
       <c r="R35">
-        <v>1</v>
-      </c>
-      <c r="S35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+        <v>340.3261108398438</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
         <v>2500</v>
       </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36">
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
         <v>3</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>12</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>2.5</v>
       </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36">
+      <c r="I36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36">
         <v>6</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>8</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>8</v>
       </c>
-      <c r="K36">
-        <v>0.97593617544119926</v>
-      </c>
-      <c r="L36">
-        <v>97.264099999999999</v>
-      </c>
       <c r="M36">
-        <v>98.471599999999995</v>
+        <v>0.9759361754411993</v>
       </c>
       <c r="N36">
-        <v>93.641599999999997</v>
-      </c>
-      <c r="O36" t="s">
-        <v>49</v>
+        <v>97.2641</v>
+      </c>
+      <c r="O36">
+        <v>98.4716</v>
       </c>
       <c r="P36">
-        <v>506.25173950195313</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
+        <v>93.6416</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>51</v>
       </c>
       <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="S36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+        <v>506.2517395019531</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
         <v>2500</v>
       </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
         <v>3</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>12</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>2.5</v>
       </c>
-      <c r="G37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37">
+      <c r="I37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37">
         <v>6</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>12</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>12</v>
       </c>
-      <c r="K37">
-        <v>0.97593617544119926</v>
-      </c>
-      <c r="L37">
-        <v>97.264099999999999</v>
-      </c>
       <c r="M37">
-        <v>98.471599999999995</v>
+        <v>0.9759361754411993</v>
       </c>
       <c r="N37">
-        <v>93.641599999999997</v>
-      </c>
-      <c r="O37" t="s">
-        <v>49</v>
+        <v>97.2641</v>
+      </c>
+      <c r="O37">
+        <v>98.4716</v>
       </c>
       <c r="P37">
-        <v>507.06594848632813</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
+        <v>93.6416</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>51</v>
       </c>
       <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="S37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+        <v>507.0659484863281</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
         <v>2500</v>
       </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
         <v>3</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>14</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>2.5</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38">
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38">
         <v>6</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>14</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>12</v>
       </c>
-      <c r="K38">
-        <v>0.96577083715539458</v>
-      </c>
-      <c r="L38">
-        <v>96.079899999999995</v>
-      </c>
       <c r="M38">
-        <v>97.876199999999997</v>
+        <v>0.9657708371553946</v>
       </c>
       <c r="N38">
-        <v>90.690700000000007</v>
-      </c>
-      <c r="O38" t="s">
-        <v>50</v>
+        <v>96.07989999999999</v>
+      </c>
+      <c r="O38">
+        <v>97.8762</v>
       </c>
       <c r="P38">
+        <v>90.69070000000001</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>52</v>
+      </c>
+      <c r="R38">
         <v>675.192626953125</v>
       </c>
-      <c r="Q38">
-        <v>1</v>
-      </c>
-      <c r="R38">
-        <v>1</v>
-      </c>
-      <c r="S38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="U38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
         <v>2500</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
         <v>3</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>10</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>2.5</v>
       </c>
-      <c r="G39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39">
+      <c r="I39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39">
         <v>6</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>11</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>12</v>
       </c>
-      <c r="K39">
-        <v>0.62204610495117407</v>
-      </c>
-      <c r="L39">
-        <v>61.627600000000001</v>
-      </c>
       <c r="M39">
-        <v>64.259699999999995</v>
+        <v>0.6220461049511741</v>
       </c>
       <c r="N39">
-        <v>53.731299999999997</v>
-      </c>
-      <c r="O39" t="s">
-        <v>51</v>
+        <v>61.6276</v>
+      </c>
+      <c r="O39">
+        <v>64.2597</v>
       </c>
       <c r="P39">
+        <v>53.7313</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>53</v>
+      </c>
+      <c r="R39">
         <v>1567.66015625</v>
       </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>1</v>
-      </c>
-      <c r="S39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
         <v>2500</v>
       </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40">
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>12</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>2.6</v>
       </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40">
+      <c r="I40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40">
         <v>6</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>8</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>8</v>
       </c>
-      <c r="K40">
-        <v>0.98021372971969456</v>
-      </c>
-      <c r="L40">
-        <v>97.748000000000005</v>
-      </c>
       <c r="M40">
+        <v>0.9802137297196946</v>
+      </c>
+      <c r="N40">
+        <v>97.748</v>
+      </c>
+      <c r="O40">
         <v>98.7517</v>
       </c>
-      <c r="N40">
-        <v>94.736800000000002</v>
-      </c>
-      <c r="O40" t="s">
-        <v>52</v>
-      </c>
       <c r="P40">
-        <v>506.25173950195313</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
+        <v>94.7368</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>54</v>
       </c>
       <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="S40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>506.2517395019531</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
         <v>2500</v>
       </c>
-      <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41">
+      <c r="E41">
+        <v>5</v>
+      </c>
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>12</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>2.6</v>
       </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41">
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41">
         <v>6</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>8</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>8</v>
       </c>
-      <c r="K41">
-        <v>0.98021372971969456</v>
-      </c>
-      <c r="L41">
-        <v>97.748000000000005</v>
-      </c>
       <c r="M41">
+        <v>0.9802137297196946</v>
+      </c>
+      <c r="N41">
+        <v>97.748</v>
+      </c>
+      <c r="O41">
         <v>98.7517</v>
       </c>
-      <c r="N41">
-        <v>94.736800000000002</v>
-      </c>
-      <c r="O41" t="s">
-        <v>52</v>
-      </c>
       <c r="P41">
-        <v>506.25173950195313</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
+        <v>94.7368</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>54</v>
       </c>
       <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+        <v>506.2517395019531</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
         <v>2500</v>
       </c>
-      <c r="C42">
-        <v>5</v>
-      </c>
-      <c r="D42">
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>12</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>2.6</v>
       </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42">
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42">
         <v>6</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>12</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>12</v>
       </c>
-      <c r="K42">
-        <v>0.98021372971969456</v>
-      </c>
-      <c r="L42">
-        <v>97.748000000000005</v>
-      </c>
       <c r="M42">
+        <v>0.9802137297196946</v>
+      </c>
+      <c r="N42">
+        <v>97.748</v>
+      </c>
+      <c r="O42">
         <v>98.7517</v>
       </c>
-      <c r="N42">
-        <v>94.736800000000002</v>
-      </c>
-      <c r="O42" t="s">
-        <v>52</v>
-      </c>
       <c r="P42">
-        <v>507.06594848632813</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
+        <v>94.7368</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>54</v>
       </c>
       <c r="R42">
-        <v>1</v>
-      </c>
-      <c r="S42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+        <v>507.0659484863281</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43">
         <v>2500</v>
       </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43">
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>12</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>2.6</v>
       </c>
-      <c r="G43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
+      <c r="I43" t="s">
         <v>20</v>
       </c>
       <c r="J43">
         <v>3</v>
       </c>
       <c r="K43">
-        <v>0.95988420383677919</v>
+        <v>20</v>
       </c>
       <c r="L43">
-        <v>95.292900000000003</v>
+        <v>3</v>
       </c>
       <c r="M43">
+        <v>0.9598842038367792</v>
+      </c>
+      <c r="N43">
+        <v>95.2929</v>
+      </c>
+      <c r="O43">
         <v>97.7607</v>
       </c>
-      <c r="N43">
-        <v>87.889300000000006</v>
-      </c>
-      <c r="O43" t="s">
-        <v>53</v>
-      </c>
       <c r="P43">
-        <v>481.24288940429688</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
+        <v>87.88930000000001</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>55</v>
       </c>
       <c r="R43">
-        <v>1</v>
-      </c>
-      <c r="S43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+        <v>481.2428894042969</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44">
         <v>2500</v>
       </c>
-      <c r="C44">
-        <v>5</v>
-      </c>
-      <c r="D44">
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>12</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>2.6</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>21</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>0.9955402836815935</v>
+      </c>
+      <c r="N44">
+        <v>99.4885</v>
+      </c>
+      <c r="O44">
+        <v>99.72709999999999</v>
+      </c>
+      <c r="P44">
+        <v>98.773</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>56</v>
+      </c>
+      <c r="R44">
+        <v>535.1661376953125</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>2500</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <v>2.6</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <v>51</v>
+      </c>
+      <c r="L45">
+        <v>8</v>
+      </c>
+      <c r="M45">
+        <v>0.9921833573251249</v>
+      </c>
+      <c r="N45">
+        <v>99.1007</v>
+      </c>
+      <c r="O45">
+        <v>99.5234</v>
+      </c>
+      <c r="P45">
+        <v>97.83280000000001</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>57</v>
+      </c>
+      <c r="R45">
+        <v>535.0365600585938</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
+      <c r="U45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>3000</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>2.6</v>
+      </c>
+      <c r="I46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>8</v>
+      </c>
+      <c r="M46">
+        <v>0.641504329004329</v>
+      </c>
+      <c r="N46">
+        <v>63.0952</v>
+      </c>
+      <c r="O46">
+        <v>66.66670000000001</v>
+      </c>
+      <c r="P46">
+        <v>52.381</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>58</v>
+      </c>
+      <c r="R46">
+        <v>1609.544067382812</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>3000</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <v>2.6</v>
+      </c>
+      <c r="I47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>15</v>
+      </c>
+      <c r="K47">
+        <v>43</v>
+      </c>
+      <c r="L47">
+        <v>8</v>
+      </c>
+      <c r="M47">
+        <v>0.641504329004329</v>
+      </c>
+      <c r="N47">
+        <v>63.0952</v>
+      </c>
+      <c r="O47">
+        <v>66.66670000000001</v>
+      </c>
+      <c r="P47">
+        <v>52.381</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>59</v>
+      </c>
+      <c r="R47">
+        <v>1624.92578125</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>3000</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="H48">
+        <v>2.6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>34</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+      <c r="M48">
+        <v>0.9245757385958102</v>
+      </c>
+      <c r="N48">
+        <v>90.12130000000001</v>
+      </c>
+      <c r="O48">
+        <v>96.2966</v>
+      </c>
+      <c r="P48">
+        <v>71.59529999999999</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>60</v>
+      </c>
+      <c r="R48">
+        <v>558.0235595703125</v>
+      </c>
+      <c r="S48">
+        <v>0.9998611211776733</v>
+      </c>
+      <c r="T48">
+        <v>0.9799107313156128</v>
+      </c>
+      <c r="U48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>3000</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <v>2.6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>34</v>
+      </c>
+      <c r="L49">
+        <v>8</v>
+      </c>
+      <c r="M49">
+        <v>0.641504329004329</v>
+      </c>
+      <c r="N49">
+        <v>63.0952</v>
+      </c>
+      <c r="O49">
+        <v>66.66670000000001</v>
+      </c>
+      <c r="P49">
+        <v>52.381</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>61</v>
+      </c>
+      <c r="R49">
+        <v>1591.715698242188</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>3000</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>2.6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <v>30</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50">
+        <v>0.9856333404887123</v>
+      </c>
+      <c r="N50">
+        <v>98.1897</v>
+      </c>
+      <c r="O50">
+        <v>99.17359999999999</v>
+      </c>
+      <c r="P50">
+        <v>95.2381</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>62</v>
+      </c>
+      <c r="R50">
+        <v>869.0889282226562</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>3000</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>16</v>
+      </c>
+      <c r="H51">
+        <v>2.6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>42</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51">
+        <v>0.9990523922981531</v>
+      </c>
+      <c r="N51">
+        <v>99.8817</v>
+      </c>
+      <c r="O51">
+        <v>99.9436</v>
+      </c>
+      <c r="P51">
+        <v>99.696</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>63</v>
+      </c>
+      <c r="R51">
+        <v>1228.357177734375</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0.9944196343421936</v>
+      </c>
+      <c r="U51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>4000</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52">
+        <v>2.6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="K52">
+        <v>30</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52">
+        <v>0.9868555319517208</v>
+      </c>
+      <c r="N52">
+        <v>98.1116</v>
+      </c>
+      <c r="O52">
+        <v>99.22629999999999</v>
+      </c>
+      <c r="P52">
+        <v>94.76739999999999</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>64</v>
+      </c>
+      <c r="R52">
+        <v>1026.683715820312</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>5000</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>16</v>
+      </c>
+      <c r="H53">
+        <v>2.6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>37</v>
+      </c>
+      <c r="L53">
+        <v>8</v>
+      </c>
+      <c r="M53">
+        <v>0.9982602877187428</v>
+      </c>
+      <c r="N53">
+        <v>99.7268</v>
+      </c>
+      <c r="O53">
+        <v>99.89879999999999</v>
+      </c>
+      <c r="P53">
+        <v>99.3827</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53">
+        <v>744.8640747070312</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>5000</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>16</v>
+      </c>
+      <c r="H54">
+        <v>2.6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <v>8</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>100</v>
+      </c>
+      <c r="O54">
+        <v>100</v>
+      </c>
+      <c r="P54">
+        <v>100</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>66</v>
+      </c>
+      <c r="R54">
+        <v>772.7252197265625</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>5000</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>2.6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>10</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>8</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>100</v>
+      </c>
+      <c r="O55">
+        <v>100</v>
+      </c>
+      <c r="P55">
+        <v>100</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>66</v>
+      </c>
+      <c r="R55">
+        <v>772.7252197265625</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>10000</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>16</v>
+      </c>
+      <c r="H56">
+        <v>2.6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>39</v>
+      </c>
+      <c r="L56">
+        <v>8</v>
+      </c>
+      <c r="M56">
+        <v>0.489408965923449</v>
+      </c>
+      <c r="N56">
+        <v>41.7719</v>
+      </c>
+      <c r="O56">
+        <v>51.076</v>
+      </c>
+      <c r="P56">
+        <v>23.1638</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>67</v>
+      </c>
+      <c r="R56">
+        <v>6117.12890625</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>10000</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
         <v>18</v>
       </c>
-      <c r="H44">
+      <c r="H57">
+        <v>2.6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57">
         <v>10</v>
       </c>
-      <c r="I44">
+      <c r="K57">
         <v>21</v>
       </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="K44">
-        <v>0.99554028368159353</v>
-      </c>
-      <c r="L44">
-        <v>99.488500000000002</v>
-      </c>
-      <c r="M44">
-        <v>99.727099999999993</v>
-      </c>
-      <c r="N44">
-        <v>98.772999999999996</v>
-      </c>
-      <c r="O44" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44">
-        <v>535.1661376953125</v>
-      </c>
-      <c r="Q44">
-        <v>1</v>
-      </c>
-      <c r="R44">
-        <v>1</v>
-      </c>
-      <c r="S44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+      <c r="L57">
+        <v>8</v>
+      </c>
+      <c r="M57">
+        <v>0.7446129907670689</v>
+      </c>
+      <c r="N57">
+        <v>63.4363</v>
+      </c>
+      <c r="O57">
+        <v>77.7448</v>
+      </c>
+      <c r="P57">
+        <v>34.8195</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>68</v>
+      </c>
+      <c r="R57">
+        <v>3336.19482421875</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
         <v>0</v>
       </c>
-      <c r="B45">
-        <v>2500</v>
-      </c>
-      <c r="C45">
-        <v>5</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>12</v>
-      </c>
-      <c r="F45">
+      <c r="D58">
+        <v>10000</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58">
         <v>2.6</v>
       </c>
-      <c r="G45" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45">
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58">
         <v>10</v>
       </c>
-      <c r="I45">
-        <v>51</v>
-      </c>
-      <c r="J45">
+      <c r="K58">
+        <v>15</v>
+      </c>
+      <c r="L58">
         <v>8</v>
       </c>
-      <c r="K45">
-        <v>0.99218335732512486</v>
-      </c>
-      <c r="L45">
-        <v>99.100700000000003</v>
-      </c>
-      <c r="M45">
-        <v>99.523399999999995</v>
-      </c>
-      <c r="N45">
-        <v>97.832800000000006</v>
-      </c>
-      <c r="O45" t="s">
-        <v>55</v>
-      </c>
-      <c r="P45">
-        <v>535.03656005859375</v>
-      </c>
-      <c r="Q45">
-        <v>1</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-      <c r="S45" t="s">
-        <v>95</v>
+      <c r="M58">
+        <v>0.7680202776746371</v>
+      </c>
+      <c r="N58">
+        <v>65.63460000000001</v>
+      </c>
+      <c r="O58">
+        <v>80.1279</v>
+      </c>
+      <c r="P58">
+        <v>36.648</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>69</v>
+      </c>
+      <c r="R58">
+        <v>2216.86572265625</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/oclog/openset/notebooks/tracker.xlsx
+++ b/oclog/openset/notebooks/tracker.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="135">
+  <si>
+    <t>Unnamed: 0.2</t>
+  </si>
   <si>
     <t>Unnamed: 0.1</t>
   </si>
@@ -226,6 +229,30 @@
     <t>8.845131,8.850864</t>
   </si>
   <si>
+    <t>8.890071,8.895768</t>
+  </si>
+  <si>
+    <t>8.874122,8.879835</t>
+  </si>
+  <si>
+    <t>8.8807535,8.886441</t>
+  </si>
+  <si>
+    <t>8.890586,8.896346</t>
+  </si>
+  <si>
+    <t>8.880667,8.886354</t>
+  </si>
+  <si>
+    <t>8.887132,8.892819</t>
+  </si>
+  <si>
+    <t>8.880718,8.8864155</t>
+  </si>
+  <si>
+    <t>8.880511,8.886233</t>
+  </si>
+  <si>
     <t>make the pre-trained model better</t>
   </si>
   <si>
@@ -377,6 +404,21 @@
   </si>
   <si>
     <t>increase emsize more</t>
+  </si>
+  <si>
+    <t>increase data more</t>
+  </si>
+  <si>
+    <t>increase emsize a bit with 20K</t>
+  </si>
+  <si>
+    <t>increase emsize more with 20K</t>
+  </si>
+  <si>
+    <t>increase pretrain with 20K</t>
+  </si>
+  <si>
+    <t>decrease pretrain with 20K</t>
   </si>
 </sst>
 </file>
@@ -734,13 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,8 +843,11 @@
       <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -813,49 +858,52 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>500</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
       <c r="F2">
         <v>5</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>50</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.6648399208471686</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>67.2051</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>80.6461</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -866,52 +914,55 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1000</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
       <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3">
         <v>14</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>50</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.5648785779635153</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>64.30070000000001</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>69.82729999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>42.1941</v>
       </c>
-      <c r="Q3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3">
+      <c r="R3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3">
         <v>1416.6083</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -922,55 +973,58 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>500</v>
       </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
       <c r="F4">
         <v>5</v>
       </c>
       <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
         <v>14</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>50</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.541426158022799</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>53.3236</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>55.261</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>43.6364</v>
       </c>
-      <c r="Q4" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4">
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4">
         <v>955.2093505859375</v>
       </c>
-      <c r="U4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -981,55 +1035,58 @@
         <v>3</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>500</v>
       </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5">
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
         <v>14</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>50</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.4682223729015893</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>46.15</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>48.2051</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>35.8744</v>
       </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5">
         <v>1125.431518554688</v>
       </c>
-      <c r="U5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="V5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1040,55 +1097,58 @@
         <v>4</v>
       </c>
       <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
         <v>500</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.4969430150797513</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>49.009</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>51.4523</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>36.7925</v>
       </c>
-      <c r="Q6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6">
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6">
         <v>1125.13427734375</v>
       </c>
-      <c r="U6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="V6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1099,55 +1159,58 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>500</v>
       </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7">
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7">
         <v>14</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>50</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.7561342091445692</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>76.2593</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>91.5112</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7">
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7">
         <v>1125.478637695312</v>
       </c>
-      <c r="U7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1158,55 +1221,58 @@
         <v>6</v>
       </c>
       <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
         <v>500</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.5</v>
       </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
         <v>14</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>50</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>6</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.2621106797125889</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>25.7856</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>24.4562</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>32.4324</v>
       </c>
-      <c r="Q8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8">
+      <c r="R8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8">
         <v>1126.793823242188</v>
       </c>
-      <c r="U8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1217,55 +1283,58 @@
         <v>7</v>
       </c>
       <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
         <v>500</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
       <c r="F9">
         <v>5</v>
       </c>
       <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.5</v>
       </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>50</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.2621106797125889</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>25.7856</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>24.4562</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>32.4324</v>
       </c>
-      <c r="Q9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9">
+      <c r="R9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9">
         <v>1126.793823242188</v>
       </c>
-      <c r="U9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1276,55 +1345,58 @@
         <v>8</v>
       </c>
       <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>500</v>
       </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
         <v>14</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>50</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.8031691575896839</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>80.53959999999999</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>87.8475</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>44</v>
       </c>
-      <c r="Q10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10">
+      <c r="R10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10">
         <v>1127.74658203125</v>
       </c>
-      <c r="U10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1335,55 +1407,58 @@
         <v>9</v>
       </c>
       <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
         <v>500</v>
       </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
       <c r="F11">
         <v>5</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11">
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
         <v>14</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.8311711364385295</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>83.4297</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>90.4314</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>48.4211</v>
       </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11">
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11">
         <v>957.549072265625</v>
       </c>
-      <c r="U11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1394,55 +1469,58 @@
         <v>10</v>
       </c>
       <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>500</v>
       </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.5</v>
       </c>
-      <c r="I12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12">
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12">
         <v>14</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>50</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0.7144977115534064</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>71.146</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>75.62520000000001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>48.75</v>
       </c>
-      <c r="Q12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R12">
+      <c r="R12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12">
         <v>954.7222900390625</v>
       </c>
-      <c r="U12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1453,55 +1531,58 @@
         <v>11</v>
       </c>
       <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
         <v>500</v>
       </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
       <c r="F13">
         <v>5</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13">
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
         <v>14</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>50</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>6</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.8311711364385295</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>83.4297</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>90.4314</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>48.4211</v>
       </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13">
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13">
         <v>957.549072265625</v>
       </c>
-      <c r="U13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1512,55 +1593,58 @@
         <v>12</v>
       </c>
       <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
         <v>500</v>
       </c>
-      <c r="E14">
-        <v>5</v>
-      </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14">
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
         <v>14</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>50</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>6</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0.3504000282081201</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>34.4876</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>34.2578</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>35.6364</v>
       </c>
-      <c r="Q14" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14">
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14">
         <v>953.8157348632812</v>
       </c>
-      <c r="U14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1571,55 +1655,58 @@
         <v>13</v>
       </c>
       <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
         <v>500</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
       <c r="G15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15">
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
         <v>14</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>50</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>6</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.9193429200642603</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>91.95950000000001</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>94.3514</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>80</v>
       </c>
-      <c r="Q15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15">
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15">
         <v>957.549072265625</v>
       </c>
-      <c r="U15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1630,55 +1717,58 @@
         <v>14</v>
       </c>
       <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
         <v>600</v>
       </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
       <c r="F16">
         <v>5</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16">
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16">
         <v>14</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>50</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>6</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.7105089985448705</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>71.35680000000001</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>79.2084</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>32.0988</v>
       </c>
-      <c r="Q16" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16">
+      <c r="R16" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16">
         <v>494.4006652832031</v>
       </c>
-      <c r="U16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1689,55 +1779,58 @@
         <v>15</v>
       </c>
       <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
         <v>600</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
       <c r="G17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17">
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
         <v>14</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>50</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>6</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.7319855896164523</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>73.45359999999999</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>80.1444</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>40</v>
       </c>
-      <c r="Q17" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17">
+      <c r="R17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17">
         <v>494.4006652832031</v>
       </c>
-      <c r="U17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1748,55 +1841,58 @@
         <v>16</v>
       </c>
       <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
         <v>1000</v>
       </c>
-      <c r="E18">
-        <v>5</v>
-      </c>
       <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
         <v>4</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18">
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18">
         <v>14</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>50</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>6</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.688142571454462</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>68.4593</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>82.60380000000001</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>11.8812</v>
       </c>
-      <c r="Q18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18">
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18">
         <v>1416.574584960938</v>
       </c>
-      <c r="U18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1807,61 +1903,64 @@
         <v>17</v>
       </c>
       <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
         <v>1000</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19">
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19">
         <v>14</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>50</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>6</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.6700382803297997</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>61.7102</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>77.1378</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>35</v>
-      </c>
-      <c r="R19">
+      <c r="R19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19">
         <v>1416.574584960938</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>0.9646875262260437</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.9661458134651184</v>
       </c>
-      <c r="U19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="V19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1872,61 +1971,64 @@
         <v>18</v>
       </c>
       <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
         <v>1000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20">
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
         <v>14</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.4704745523680051</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>45.0371</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>55.9896</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1.227</v>
       </c>
-      <c r="Q20" t="s">
-        <v>36</v>
-      </c>
-      <c r="R20">
+      <c r="R20" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20">
         <v>1416.583862304688</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.9646875262260437</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.9661458134651184</v>
       </c>
-      <c r="U20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1937,61 +2039,64 @@
         <v>19</v>
       </c>
       <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
         <v>1000</v>
       </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
       <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
         <v>4</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.5</v>
       </c>
-      <c r="I21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21">
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21">
         <v>14</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>100</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>8</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.47882377766811</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>53.4888</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>62.0301</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>19.3237</v>
       </c>
-      <c r="Q21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21">
+      <c r="R21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21">
         <v>1416.592163085938</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.9646875262260437</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.9661458134651184</v>
       </c>
-      <c r="U21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2002,61 +2107,64 @@
         <v>20</v>
       </c>
       <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
         <v>1000</v>
       </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
       <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
         <v>4</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2.5</v>
       </c>
-      <c r="I22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22">
         <v>14</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>100</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>8</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.6539845131940385</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>65.70959999999999</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>82.137</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0</v>
       </c>
-      <c r="Q22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22">
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22">
         <v>1416.592163085938</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.9646875262260437</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.9661458134651184</v>
       </c>
-      <c r="U22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="V22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2067,61 +2175,64 @@
         <v>21</v>
       </c>
       <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
         <v>1000</v>
       </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
       <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>2</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.5</v>
       </c>
-      <c r="I23" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23">
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23">
         <v>14</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>100</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>8</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.5861543689162808</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>66.0038</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>70.6681</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>47.3469</v>
       </c>
-      <c r="Q23" t="s">
-        <v>39</v>
-      </c>
-      <c r="R23">
+      <c r="R23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23">
         <v>1416.593872070312</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.9646875262260437</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.9661458134651184</v>
       </c>
-      <c r="U23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2132,61 +2243,64 @@
         <v>22</v>
       </c>
       <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
         <v>1000</v>
       </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
       <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.5</v>
       </c>
-      <c r="I24" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24">
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24">
         <v>14</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>100</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>8</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.5861543689162808</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>66.0038</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>70.6681</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>47.3469</v>
       </c>
-      <c r="Q24" t="s">
-        <v>39</v>
-      </c>
-      <c r="R24">
+      <c r="R24" t="s">
+        <v>40</v>
+      </c>
+      <c r="S24">
         <v>1416.593872070312</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.9646875262260437</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.9661458134651184</v>
       </c>
-      <c r="U24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2197,61 +2311,64 @@
         <v>23</v>
       </c>
       <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
         <v>1000</v>
       </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
       <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
         <v>4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="I25" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25">
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25">
         <v>14</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>17</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>8</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0.5809017922034035</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>65.58450000000001</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>70.458</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>46.0905</v>
       </c>
-      <c r="Q25" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25">
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25">
         <v>1416.592163085938</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>0.9646875262260437</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.9661458134651184</v>
       </c>
-      <c r="U25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2262,61 +2379,64 @@
         <v>24</v>
       </c>
       <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
         <v>1000</v>
       </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
       <c r="F26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
         <v>2.5</v>
       </c>
-      <c r="I26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26">
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26">
         <v>14</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>31</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>8</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.6310852365038407</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>65.66630000000001</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>67.77</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>57.2519</v>
       </c>
-      <c r="Q26" t="s">
-        <v>41</v>
-      </c>
-      <c r="R26">
+      <c r="R26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S26">
         <v>420.2345886230469</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.996874988079071</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.9921875</v>
       </c>
-      <c r="U26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+      <c r="V26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2327,61 +2447,64 @@
         <v>25</v>
       </c>
       <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
         <v>1000</v>
       </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
       <c r="F27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
         <v>2.5</v>
       </c>
-      <c r="I27" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27">
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27">
         <v>16</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>24</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>8</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.6772429243848282</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>73.2782</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>74.87179999999999</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>66.90389999999999</v>
       </c>
-      <c r="Q27" t="s">
-        <v>42</v>
-      </c>
-      <c r="R27">
+      <c r="R27" t="s">
+        <v>43</v>
+      </c>
+      <c r="S27">
         <v>366.1825256347656</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.9990624785423279</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.9973958134651184</v>
       </c>
-      <c r="U27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="V27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2392,61 +2515,64 @@
         <v>26</v>
       </c>
       <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
         <v>1250</v>
       </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
       <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>4</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.5</v>
       </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28">
         <v>16</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>30</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>0.6103361475922451</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>61.1069</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>63.5897</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>53.6585</v>
       </c>
-      <c r="Q28" t="s">
-        <v>43</v>
-      </c>
-      <c r="R28">
+      <c r="R28" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28">
         <v>351.4083862304688</v>
       </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
       <c r="T28">
         <v>1</v>
       </c>
-      <c r="U28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2457,61 +2583,64 @@
         <v>27</v>
       </c>
       <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
         <v>1500</v>
       </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
       <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>4</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.5</v>
       </c>
-      <c r="I29" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29">
+      <c r="J29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29">
         <v>16</v>
       </c>
-      <c r="K29">
-        <v>21</v>
-      </c>
       <c r="L29">
+        <v>21</v>
+      </c>
+      <c r="M29">
         <v>8</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.434978203013628</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>43.9342</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>41.4634</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>51.3465</v>
       </c>
-      <c r="Q29" t="s">
-        <v>44</v>
-      </c>
-      <c r="R29">
+      <c r="R29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29">
         <v>1551.62841796875</v>
       </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
       <c r="T29">
         <v>1</v>
       </c>
-      <c r="U29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2522,61 +2651,64 @@
         <v>28</v>
       </c>
       <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
         <v>1500</v>
       </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
       <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
         <v>3</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>6</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.5</v>
       </c>
-      <c r="I30" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30">
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30">
         <v>6</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>28</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>8</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.5908397998407255</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>59.5078</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>60.6592</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>56.0538</v>
       </c>
-      <c r="Q30" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30">
+      <c r="R30" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30">
         <v>1116.225830078125</v>
       </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
       <c r="T30">
         <v>1</v>
       </c>
-      <c r="U30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2587,61 +2719,64 @@
         <v>29</v>
       </c>
       <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
         <v>1500</v>
       </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
       <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>8</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.5</v>
       </c>
-      <c r="I31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31">
         <v>6</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>10</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>8</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.6250210832083958</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>62.9573</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>63.2184</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>62.1739</v>
       </c>
-      <c r="Q31" t="s">
-        <v>46</v>
-      </c>
-      <c r="R31">
+      <c r="R31" t="s">
+        <v>47</v>
+      </c>
+      <c r="S31">
         <v>511.5006408691406</v>
       </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
       <c r="T31">
         <v>1</v>
       </c>
-      <c r="U31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2652,61 +2787,64 @@
         <v>30</v>
       </c>
       <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
         <v>1500</v>
       </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
       <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>12</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.5</v>
       </c>
-      <c r="I32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J32">
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32">
         <v>6</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>10</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>8</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>0.6257050125108751</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>63.0214</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>63.4252</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>61.8102</v>
       </c>
-      <c r="Q32" t="s">
-        <v>47</v>
-      </c>
-      <c r="R32">
+      <c r="R32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S32">
         <v>462.2362976074219</v>
       </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
       <c r="T32">
         <v>1</v>
       </c>
-      <c r="U32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2717,61 +2855,64 @@
         <v>31</v>
       </c>
       <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
         <v>1500</v>
       </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
       <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
         <v>3</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>16</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.5</v>
       </c>
-      <c r="I33" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33">
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33">
         <v>6</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>34</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>8</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.5158024859259058</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>51.9707</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>53.6761</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>46.8547</v>
       </c>
-      <c r="Q33" t="s">
-        <v>48</v>
-      </c>
-      <c r="R33">
+      <c r="R33" t="s">
+        <v>49</v>
+      </c>
+      <c r="S33">
         <v>597.957763671875</v>
       </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
       <c r="T33">
         <v>1</v>
       </c>
-      <c r="U33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2782,61 +2923,64 @@
         <v>32</v>
       </c>
       <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
         <v>1750</v>
       </c>
-      <c r="E34">
-        <v>5</v>
-      </c>
       <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>12</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.5</v>
       </c>
-      <c r="I34" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34">
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34">
         <v>6</v>
       </c>
-      <c r="K34">
-        <v>21</v>
-      </c>
       <c r="L34">
+        <v>21</v>
+      </c>
+      <c r="M34">
         <v>8</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.9821230957322555</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>98.16759999999999</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>98.8471</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>96.129</v>
       </c>
-      <c r="Q34" t="s">
-        <v>49</v>
-      </c>
-      <c r="R34">
+      <c r="R34" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34">
         <v>385.962158203125</v>
       </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
       <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
         <v>0.990234375</v>
       </c>
-      <c r="U34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="V34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2847,61 +2991,64 @@
         <v>33</v>
       </c>
       <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
         <v>2000</v>
       </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
       <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
         <v>3</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>12</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.5</v>
       </c>
-      <c r="I35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35">
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35">
         <v>6</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>19</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>8</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.9931753861183268</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>99.2872</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>99.5754</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>98.42270000000001</v>
       </c>
-      <c r="Q35" t="s">
-        <v>50</v>
-      </c>
-      <c r="R35">
+      <c r="R35" t="s">
+        <v>51</v>
+      </c>
+      <c r="S35">
         <v>340.3261108398438</v>
       </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
       <c r="T35">
         <v>1</v>
       </c>
-      <c r="U35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2912,61 +3059,64 @@
         <v>34</v>
       </c>
       <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
         <v>2500</v>
       </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
       <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
         <v>3</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>12</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2.5</v>
       </c>
-      <c r="I36" t="s">
-        <v>20</v>
-      </c>
-      <c r="J36">
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36">
         <v>6</v>
-      </c>
-      <c r="K36">
-        <v>8</v>
       </c>
       <c r="L36">
         <v>8</v>
       </c>
       <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36">
         <v>0.9759361754411993</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>97.2641</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>98.4716</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>93.6416</v>
       </c>
-      <c r="Q36" t="s">
-        <v>51</v>
-      </c>
-      <c r="R36">
+      <c r="R36" t="s">
+        <v>52</v>
+      </c>
+      <c r="S36">
         <v>506.2517395019531</v>
       </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
       <c r="T36">
         <v>1</v>
       </c>
-      <c r="U36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2977,61 +3127,64 @@
         <v>35</v>
       </c>
       <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
         <v>2500</v>
       </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
       <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>12</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2.5</v>
       </c>
-      <c r="I37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37">
+      <c r="J37" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37">
         <v>6</v>
-      </c>
-      <c r="K37">
-        <v>12</v>
       </c>
       <c r="L37">
         <v>12</v>
       </c>
       <c r="M37">
+        <v>12</v>
+      </c>
+      <c r="N37">
         <v>0.9759361754411993</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>97.2641</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>98.4716</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>93.6416</v>
       </c>
-      <c r="Q37" t="s">
-        <v>51</v>
-      </c>
-      <c r="R37">
+      <c r="R37" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37">
         <v>507.0659484863281</v>
       </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
       <c r="T37">
         <v>1</v>
       </c>
-      <c r="U37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3042,61 +3195,64 @@
         <v>36</v>
       </c>
       <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
         <v>2500</v>
       </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
       <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>14</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.5</v>
       </c>
-      <c r="I38" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38">
+      <c r="J38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38">
         <v>6</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>14</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>12</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.9657708371553946</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>96.07989999999999</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>97.8762</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>90.69070000000001</v>
       </c>
-      <c r="Q38" t="s">
-        <v>52</v>
-      </c>
-      <c r="R38">
+      <c r="R38" t="s">
+        <v>53</v>
+      </c>
+      <c r="S38">
         <v>675.192626953125</v>
       </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
       <c r="T38">
         <v>1</v>
       </c>
-      <c r="U38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3107,61 +3263,64 @@
         <v>37</v>
       </c>
       <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
         <v>2500</v>
       </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
       <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
         <v>3</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>10</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2.5</v>
       </c>
-      <c r="I39" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39">
+      <c r="J39" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39">
         <v>6</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>11</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>12</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>0.6220461049511741</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>61.6276</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>64.2597</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>53.7313</v>
       </c>
-      <c r="Q39" t="s">
-        <v>53</v>
-      </c>
-      <c r="R39">
+      <c r="R39" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39">
         <v>1567.66015625</v>
       </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
       <c r="T39">
         <v>1</v>
       </c>
-      <c r="U39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3172,61 +3331,64 @@
         <v>38</v>
       </c>
       <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
         <v>2500</v>
       </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
       <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
         <v>3</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>12</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.6</v>
       </c>
-      <c r="I40" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40">
+      <c r="J40" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40">
         <v>6</v>
-      </c>
-      <c r="K40">
-        <v>8</v>
       </c>
       <c r="L40">
         <v>8</v>
       </c>
       <c r="M40">
+        <v>8</v>
+      </c>
+      <c r="N40">
         <v>0.9802137297196946</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>97.748</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>98.7517</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>94.7368</v>
       </c>
-      <c r="Q40" t="s">
-        <v>54</v>
-      </c>
-      <c r="R40">
+      <c r="R40" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40">
         <v>506.2517395019531</v>
       </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
       <c r="T40">
         <v>1</v>
       </c>
-      <c r="U40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3237,61 +3399,64 @@
         <v>39</v>
       </c>
       <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
         <v>2500</v>
       </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
       <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41">
         <v>3</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>12</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2.6</v>
       </c>
-      <c r="I41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41">
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41">
         <v>6</v>
-      </c>
-      <c r="K41">
-        <v>8</v>
       </c>
       <c r="L41">
         <v>8</v>
       </c>
       <c r="M41">
+        <v>8</v>
+      </c>
+      <c r="N41">
         <v>0.9802137297196946</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>97.748</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>98.7517</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>94.7368</v>
       </c>
-      <c r="Q41" t="s">
-        <v>54</v>
-      </c>
-      <c r="R41">
+      <c r="R41" t="s">
+        <v>55</v>
+      </c>
+      <c r="S41">
         <v>506.2517395019531</v>
       </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
       <c r="T41">
         <v>1</v>
       </c>
-      <c r="U41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3302,61 +3467,64 @@
         <v>40</v>
       </c>
       <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
         <v>2500</v>
       </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
       <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>12</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2.6</v>
       </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42">
+      <c r="J42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42">
         <v>6</v>
-      </c>
-      <c r="K42">
-        <v>12</v>
       </c>
       <c r="L42">
         <v>12</v>
       </c>
       <c r="M42">
+        <v>12</v>
+      </c>
+      <c r="N42">
         <v>0.9802137297196946</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>97.748</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>98.7517</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>94.7368</v>
       </c>
-      <c r="Q42" t="s">
-        <v>54</v>
-      </c>
-      <c r="R42">
+      <c r="R42" t="s">
+        <v>55</v>
+      </c>
+      <c r="S42">
         <v>507.0659484863281</v>
       </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
       <c r="T42">
         <v>1</v>
       </c>
-      <c r="U42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3367,61 +3535,64 @@
         <v>41</v>
       </c>
       <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
         <v>2500</v>
       </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
       <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
         <v>3</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>12</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2.6</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43">
         <v>20</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>3</v>
       </c>
-      <c r="K43">
-        <v>20</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-      <c r="M43">
+      <c r="N43">
         <v>0.9598842038367792</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>95.2929</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>97.7607</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>87.88930000000001</v>
       </c>
-      <c r="Q43" t="s">
-        <v>55</v>
-      </c>
-      <c r="R43">
+      <c r="R43" t="s">
+        <v>56</v>
+      </c>
+      <c r="S43">
         <v>481.2428894042969</v>
       </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
       <c r="T43">
         <v>1</v>
       </c>
-      <c r="U43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3432,61 +3603,64 @@
         <v>42</v>
       </c>
       <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
         <v>2500</v>
       </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
       <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
         <v>3</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>12</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>2.6</v>
       </c>
-      <c r="I44" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44">
+      <c r="J44" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44">
         <v>10</v>
       </c>
-      <c r="K44">
-        <v>21</v>
-      </c>
       <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44">
         <v>3</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.9955402836815935</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>99.4885</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>99.72709999999999</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>98.773</v>
       </c>
-      <c r="Q44" t="s">
-        <v>56</v>
-      </c>
-      <c r="R44">
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+      <c r="S44">
         <v>535.1661376953125</v>
       </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
       <c r="T44">
         <v>1</v>
       </c>
-      <c r="U44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="U44">
+        <v>1</v>
+      </c>
+      <c r="V44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3497,61 +3671,64 @@
         <v>43</v>
       </c>
       <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
         <v>2500</v>
       </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
       <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
         <v>3</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>12</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>2.6</v>
       </c>
-      <c r="I45" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45">
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45">
         <v>10</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>51</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>8</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>0.9921833573251249</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>99.1007</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>99.5234</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>97.83280000000001</v>
       </c>
-      <c r="Q45" t="s">
-        <v>57</v>
-      </c>
-      <c r="R45">
+      <c r="R45" t="s">
+        <v>58</v>
+      </c>
+      <c r="S45">
         <v>535.0365600585938</v>
       </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
       <c r="T45">
         <v>1</v>
       </c>
-      <c r="U45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3562,61 +3739,64 @@
         <v>44</v>
       </c>
       <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
         <v>3000</v>
       </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
       <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
         <v>3</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>12</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>2.6</v>
       </c>
-      <c r="I46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46">
+      <c r="J46" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46">
         <v>10</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>31</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>8</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>0.641504329004329</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>63.0952</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>66.66670000000001</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>52.381</v>
       </c>
-      <c r="Q46" t="s">
-        <v>58</v>
-      </c>
-      <c r="R46">
+      <c r="R46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S46">
         <v>1609.544067382812</v>
       </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
       <c r="T46">
         <v>1</v>
       </c>
-      <c r="U46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3627,61 +3807,64 @@
         <v>45</v>
       </c>
       <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
         <v>3000</v>
       </c>
-      <c r="E47">
-        <v>5</v>
-      </c>
       <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
         <v>3</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>12</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>2.6</v>
       </c>
-      <c r="I47" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47">
+      <c r="J47" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47">
         <v>15</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>43</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>8</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>0.641504329004329</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>63.0952</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>66.66670000000001</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>52.381</v>
       </c>
-      <c r="Q47" t="s">
-        <v>59</v>
-      </c>
-      <c r="R47">
+      <c r="R47" t="s">
+        <v>60</v>
+      </c>
+      <c r="S47">
         <v>1624.92578125</v>
       </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
       <c r="T47">
         <v>1</v>
       </c>
-      <c r="U47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3692,61 +3875,64 @@
         <v>46</v>
       </c>
       <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
         <v>3000</v>
       </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
       <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48">
         <v>3</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>12</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>2.6</v>
       </c>
-      <c r="I48" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48">
+      <c r="J48" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48">
         <v>3</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>34</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>8</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.9245757385958102</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>90.12130000000001</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>96.2966</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>71.59529999999999</v>
       </c>
-      <c r="Q48" t="s">
-        <v>60</v>
-      </c>
-      <c r="R48">
+      <c r="R48" t="s">
+        <v>61</v>
+      </c>
+      <c r="S48">
         <v>558.0235595703125</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>0.9998611211776733</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>0.9799107313156128</v>
       </c>
-      <c r="U48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="V48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3757,61 +3943,64 @@
         <v>47</v>
       </c>
       <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
         <v>3000</v>
       </c>
-      <c r="E49">
-        <v>5</v>
-      </c>
       <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
         <v>3</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>12</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2.6</v>
       </c>
-      <c r="I49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49">
-        <v>5</v>
+      <c r="J49" t="s">
+        <v>21</v>
       </c>
       <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
         <v>34</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>8</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>0.641504329004329</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>63.0952</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>66.66670000000001</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>52.381</v>
       </c>
-      <c r="Q49" t="s">
-        <v>61</v>
-      </c>
-      <c r="R49">
+      <c r="R49" t="s">
+        <v>62</v>
+      </c>
+      <c r="S49">
         <v>1591.715698242188</v>
       </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
       <c r="T49">
         <v>1</v>
       </c>
-      <c r="U49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3822,61 +4011,64 @@
         <v>48</v>
       </c>
       <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
         <v>3000</v>
       </c>
-      <c r="E50">
-        <v>5</v>
-      </c>
       <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50">
         <v>3</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>14</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>2.6</v>
       </c>
-      <c r="I50" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50">
-        <v>5</v>
+      <c r="J50" t="s">
+        <v>21</v>
       </c>
       <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
         <v>30</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>8</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>0.9856333404887123</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>98.1897</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>99.17359999999999</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>95.2381</v>
       </c>
-      <c r="Q50" t="s">
-        <v>62</v>
-      </c>
-      <c r="R50">
+      <c r="R50" t="s">
+        <v>63</v>
+      </c>
+      <c r="S50">
         <v>869.0889282226562</v>
       </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
       <c r="T50">
         <v>1</v>
       </c>
-      <c r="U50" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3887,61 +4079,64 @@
         <v>49</v>
       </c>
       <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
         <v>3000</v>
       </c>
-      <c r="E51">
-        <v>5</v>
-      </c>
       <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51">
         <v>3</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>16</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>2.6</v>
       </c>
-      <c r="I51" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51">
-        <v>5</v>
+      <c r="J51" t="s">
+        <v>21</v>
       </c>
       <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
         <v>42</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>8</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.9990523922981531</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>99.8817</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>99.9436</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>99.696</v>
       </c>
-      <c r="Q51" t="s">
-        <v>63</v>
-      </c>
-      <c r="R51">
+      <c r="R51" t="s">
+        <v>64</v>
+      </c>
+      <c r="S51">
         <v>1228.357177734375</v>
       </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
       <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
         <v>0.9944196343421936</v>
       </c>
-      <c r="U51" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="V51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3952,61 +4147,64 @@
         <v>50</v>
       </c>
       <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
         <v>4000</v>
       </c>
-      <c r="E52">
-        <v>5</v>
-      </c>
       <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
         <v>3</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>16</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>2.6</v>
       </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52">
-        <v>5</v>
+      <c r="J52" t="s">
+        <v>21</v>
       </c>
       <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
         <v>30</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>8</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>0.9868555319517208</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>98.1116</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>99.22629999999999</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>94.76739999999999</v>
       </c>
-      <c r="Q52" t="s">
-        <v>64</v>
-      </c>
-      <c r="R52">
+      <c r="R52" t="s">
+        <v>65</v>
+      </c>
+      <c r="S52">
         <v>1026.683715820312</v>
       </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
       <c r="T52">
         <v>1</v>
       </c>
-      <c r="U52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -4017,61 +4215,64 @@
         <v>51</v>
       </c>
       <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
         <v>5000</v>
       </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
       <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53">
         <v>2</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>16</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>2.6</v>
       </c>
-      <c r="I53" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53">
-        <v>5</v>
+      <c r="J53" t="s">
+        <v>21</v>
       </c>
       <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
         <v>37</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>8</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>0.9982602877187428</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>99.7268</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>99.89879999999999</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>99.3827</v>
       </c>
-      <c r="Q53" t="s">
-        <v>65</v>
-      </c>
-      <c r="R53">
+      <c r="R53" t="s">
+        <v>66</v>
+      </c>
+      <c r="S53">
         <v>744.8640747070312</v>
       </c>
-      <c r="S53">
-        <v>1</v>
-      </c>
       <c r="T53">
         <v>1</v>
       </c>
-      <c r="U53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -4082,37 +4283,37 @@
         <v>52</v>
       </c>
       <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
         <v>5000</v>
       </c>
-      <c r="E54">
-        <v>5</v>
-      </c>
       <c r="F54">
+        <v>5</v>
+      </c>
+      <c r="G54">
         <v>2</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>16</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>2.6</v>
       </c>
-      <c r="I54" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54">
+      <c r="J54" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54">
         <v>10</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>9</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>8</v>
       </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
       <c r="N54">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O54">
         <v>100</v>
@@ -4120,23 +4321,26 @@
       <c r="P54">
         <v>100</v>
       </c>
-      <c r="Q54" t="s">
-        <v>66</v>
-      </c>
-      <c r="R54">
+      <c r="Q54">
+        <v>100</v>
+      </c>
+      <c r="R54" t="s">
+        <v>67</v>
+      </c>
+      <c r="S54">
         <v>772.7252197265625</v>
       </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
       <c r="T54">
         <v>1</v>
       </c>
-      <c r="U54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="U54">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -4147,37 +4351,37 @@
         <v>53</v>
       </c>
       <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
         <v>5000</v>
       </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
       <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
         <v>2</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>16</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>2.6</v>
       </c>
-      <c r="I55" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55">
+      <c r="J55" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55">
         <v>10</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>9</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>8</v>
       </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
       <c r="N55">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="O55">
         <v>100</v>
@@ -4185,23 +4389,26 @@
       <c r="P55">
         <v>100</v>
       </c>
-      <c r="Q55" t="s">
-        <v>66</v>
-      </c>
-      <c r="R55">
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55" t="s">
+        <v>67</v>
+      </c>
+      <c r="S55">
         <v>772.7252197265625</v>
       </c>
-      <c r="S55">
-        <v>1</v>
-      </c>
       <c r="T55">
         <v>1</v>
       </c>
-      <c r="U55" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -4209,182 +4416,794 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
         <v>10000</v>
       </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
       <c r="F56">
+        <v>5</v>
+      </c>
+      <c r="G56">
         <v>2</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>16</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>2.6</v>
       </c>
-      <c r="I56" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56">
+      <c r="J56" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56">
         <v>10</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>39</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>8</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>0.489408965923449</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>41.7719</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>51.076</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>23.1638</v>
       </c>
-      <c r="Q56" t="s">
-        <v>67</v>
-      </c>
-      <c r="R56">
+      <c r="R56" t="s">
+        <v>68</v>
+      </c>
+      <c r="S56">
         <v>6117.12890625</v>
       </c>
-      <c r="S56">
-        <v>1</v>
-      </c>
       <c r="T56">
         <v>1</v>
       </c>
-      <c r="U56" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="U56">
+        <v>1</v>
+      </c>
+      <c r="V56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>10000</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>18</v>
+      </c>
+      <c r="I57">
+        <v>2.6</v>
+      </c>
+      <c r="J57" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57">
+        <v>10</v>
+      </c>
+      <c r="L57">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>8</v>
+      </c>
+      <c r="N57">
+        <v>0.7446129907670689</v>
+      </c>
+      <c r="O57">
+        <v>63.4363</v>
+      </c>
+      <c r="P57">
+        <v>77.7448</v>
+      </c>
+      <c r="Q57">
+        <v>34.8195</v>
+      </c>
+      <c r="R57" t="s">
+        <v>69</v>
+      </c>
+      <c r="S57">
+        <v>3336.19482421875</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>10000</v>
+      </c>
+      <c r="F58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>2.6</v>
+      </c>
+      <c r="J58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>15</v>
+      </c>
+      <c r="M58">
+        <v>8</v>
+      </c>
+      <c r="N58">
+        <v>0.7680202776746371</v>
+      </c>
+      <c r="O58">
+        <v>65.63460000000001</v>
+      </c>
+      <c r="P58">
+        <v>80.1279</v>
+      </c>
+      <c r="Q58">
+        <v>36.648</v>
+      </c>
+      <c r="R58" t="s">
+        <v>70</v>
+      </c>
+      <c r="S58">
+        <v>2216.86572265625</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>10000</v>
+      </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>22</v>
+      </c>
+      <c r="I59">
+        <v>2.6</v>
+      </c>
+      <c r="J59" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59">
+        <v>10</v>
+      </c>
+      <c r="L59">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>8</v>
+      </c>
+      <c r="N59">
+        <v>0.7676474233559667</v>
+      </c>
+      <c r="O59">
+        <v>65.5569</v>
+      </c>
+      <c r="P59">
+        <v>80.1027</v>
+      </c>
+      <c r="Q59">
+        <v>36.4653</v>
+      </c>
+      <c r="R59" t="s">
+        <v>71</v>
+      </c>
+      <c r="S59">
+        <v>1946.071899414062</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>10000</v>
+      </c>
+      <c r="F60">
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>22</v>
+      </c>
+      <c r="I60">
+        <v>2.6</v>
+      </c>
+      <c r="J60" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60">
+        <v>15</v>
+      </c>
+      <c r="L60">
+        <v>17</v>
+      </c>
+      <c r="M60">
+        <v>8</v>
+      </c>
+      <c r="N60">
+        <v>0.7680202776746371</v>
+      </c>
+      <c r="O60">
+        <v>65.63460000000001</v>
+      </c>
+      <c r="P60">
+        <v>80.1279</v>
+      </c>
+      <c r="Q60">
+        <v>36.648</v>
+      </c>
+      <c r="R60" t="s">
+        <v>72</v>
+      </c>
+      <c r="S60">
+        <v>2073.2880859375</v>
+      </c>
+      <c r="T60">
+        <v>1</v>
+      </c>
+      <c r="U60">
+        <v>1</v>
+      </c>
+      <c r="V60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>20000</v>
+      </c>
+      <c r="F61">
+        <v>5</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>22</v>
+      </c>
+      <c r="I61">
+        <v>2.6</v>
+      </c>
+      <c r="J61" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>15</v>
+      </c>
+      <c r="L61">
+        <v>12</v>
+      </c>
+      <c r="M61">
+        <v>8</v>
+      </c>
+      <c r="N61">
+        <v>0.6487495862194039</v>
+      </c>
+      <c r="O61">
+        <v>50.2895</v>
+      </c>
+      <c r="P61">
+        <v>66.8539</v>
+      </c>
+      <c r="Q61">
+        <v>17.1607</v>
+      </c>
+      <c r="R61" t="s">
+        <v>73</v>
+      </c>
+      <c r="S61">
+        <v>2682.439208984375</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>0.9884999990463257</v>
+      </c>
+      <c r="V61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>20000</v>
+      </c>
+      <c r="F62">
+        <v>5</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>24</v>
+      </c>
+      <c r="I62">
+        <v>2.6</v>
+      </c>
+      <c r="J62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62">
+        <v>15</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>8</v>
+      </c>
+      <c r="N62">
+        <v>0.6906237801432944</v>
+      </c>
+      <c r="O62">
+        <v>53.2752</v>
+      </c>
+      <c r="P62">
+        <v>71.2024</v>
+      </c>
+      <c r="Q62">
+        <v>17.4208</v>
+      </c>
+      <c r="R62" t="s">
+        <v>74</v>
+      </c>
+      <c r="S62">
+        <v>2159.773193359375</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>0.9769999980926514</v>
+      </c>
+      <c r="V62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>20000</v>
+      </c>
+      <c r="F63">
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>28</v>
+      </c>
+      <c r="I63">
+        <v>2.6</v>
+      </c>
+      <c r="J63" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63">
+        <v>15</v>
+      </c>
+      <c r="L63">
+        <v>12</v>
+      </c>
+      <c r="M63">
+        <v>8</v>
+      </c>
+      <c r="N63">
+        <v>0.5614353796657844</v>
+      </c>
+      <c r="O63">
+        <v>43.6582</v>
+      </c>
+      <c r="P63">
+        <v>57.8413</v>
+      </c>
+      <c r="Q63">
+        <v>15.2919</v>
+      </c>
+      <c r="R63" t="s">
+        <v>75</v>
+      </c>
+      <c r="S63">
+        <v>4147.435546875</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>0.9549999833106995</v>
+      </c>
+      <c r="V63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
         <v>0</v>
       </c>
-      <c r="D57">
-        <v>10000</v>
-      </c>
-      <c r="E57">
-        <v>5</v>
-      </c>
-      <c r="F57">
+      <c r="E64">
+        <v>20000</v>
+      </c>
+      <c r="F64">
+        <v>5</v>
+      </c>
+      <c r="G64">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>18</v>
-      </c>
-      <c r="H57">
+      <c r="H64">
+        <v>28</v>
+      </c>
+      <c r="I64">
         <v>2.6</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J64" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64">
         <v>20</v>
       </c>
-      <c r="J57">
+      <c r="L64">
+        <v>13</v>
+      </c>
+      <c r="M64">
+        <v>8</v>
+      </c>
+      <c r="N64">
+        <v>0.5577199184954277</v>
+      </c>
+      <c r="O64">
+        <v>43.3809</v>
+      </c>
+      <c r="P64">
+        <v>57.4572</v>
+      </c>
+      <c r="Q64">
+        <v>15.2284</v>
+      </c>
+      <c r="R64" t="s">
+        <v>76</v>
+      </c>
+      <c r="S64">
+        <v>4350.97900390625</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>0.9549999833106995</v>
+      </c>
+      <c r="V64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>20000</v>
+      </c>
+      <c r="F65">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>28</v>
+      </c>
+      <c r="I65">
+        <v>2.6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65">
         <v>10</v>
       </c>
-      <c r="K57">
-        <v>21</v>
-      </c>
-      <c r="L57">
+      <c r="L65">
+        <v>12</v>
+      </c>
+      <c r="M65">
         <v>8</v>
       </c>
-      <c r="M57">
-        <v>0.7446129907670689</v>
-      </c>
-      <c r="N57">
-        <v>63.4363</v>
-      </c>
-      <c r="O57">
-        <v>77.7448</v>
-      </c>
-      <c r="P57">
-        <v>34.8195</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>68</v>
-      </c>
-      <c r="R57">
-        <v>3336.19482421875</v>
-      </c>
-      <c r="S57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="U57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
-      <c r="A58" s="1">
+      <c r="N65">
+        <v>0.5655281480517959</v>
+      </c>
+      <c r="O65">
+        <v>43.964</v>
+      </c>
+      <c r="P65">
+        <v>58.2645</v>
+      </c>
+      <c r="Q65">
+        <v>15.3631</v>
+      </c>
+      <c r="R65" t="s">
+        <v>77</v>
+      </c>
+      <c r="S65">
+        <v>3986.552734375</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>0.9549999833106995</v>
+      </c>
+      <c r="V65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
         <v>0</v>
       </c>
-      <c r="D58">
-        <v>10000</v>
-      </c>
-      <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58">
+      <c r="E66">
+        <v>20000</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="G66">
         <v>2</v>
       </c>
-      <c r="G58">
-        <v>20</v>
-      </c>
-      <c r="H58">
+      <c r="H66">
+        <v>16</v>
+      </c>
+      <c r="I66">
         <v>2.6</v>
       </c>
-      <c r="I58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58">
+      <c r="J66" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66">
         <v>10</v>
       </c>
-      <c r="K58">
-        <v>15</v>
-      </c>
-      <c r="L58">
+      <c r="L66">
+        <v>12</v>
+      </c>
+      <c r="M66">
         <v>8</v>
       </c>
-      <c r="M58">
-        <v>0.7680202776746371</v>
-      </c>
-      <c r="N58">
-        <v>65.63460000000001</v>
-      </c>
-      <c r="O58">
-        <v>80.1279</v>
-      </c>
-      <c r="P58">
-        <v>36.648</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>69</v>
-      </c>
-      <c r="R58">
-        <v>2216.86572265625</v>
-      </c>
-      <c r="S58">
-        <v>1</v>
-      </c>
-      <c r="T58">
-        <v>1</v>
-      </c>
-      <c r="U58" t="s">
-        <v>120</v>
+      <c r="N66">
+        <v>0.6874122631201527</v>
+      </c>
+      <c r="O66">
+        <v>53.1326</v>
+      </c>
+      <c r="P66">
+        <v>70.8573</v>
+      </c>
+      <c r="Q66">
+        <v>17.6833</v>
+      </c>
+      <c r="R66" t="s">
+        <v>78</v>
+      </c>
+      <c r="S66">
+        <v>1850.370361328125</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="U66">
+        <v>0.9767500162124634</v>
+      </c>
+      <c r="V66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>20000</v>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>16</v>
+      </c>
+      <c r="I67">
+        <v>2.6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67">
+        <v>10</v>
+      </c>
+      <c r="L67">
+        <v>12</v>
+      </c>
+      <c r="M67">
+        <v>8</v>
+      </c>
+      <c r="N67">
+        <v>0.6874122631201527</v>
+      </c>
+      <c r="O67">
+        <v>53.1326</v>
+      </c>
+      <c r="P67">
+        <v>70.8573</v>
+      </c>
+      <c r="Q67">
+        <v>17.6833</v>
+      </c>
+      <c r="R67" t="s">
+        <v>78</v>
+      </c>
+      <c r="S67">
+        <v>1850.370361328125</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="U67">
+        <v>0.9767500162124634</v>
+      </c>
+      <c r="V67" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
